--- a/Test Cases/Test Suite - 0001.xlsx
+++ b/Test Cases/Test Suite - 0001.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t xml:space="preserve">Test suite for A/B Testing</t>
   </si>
@@ -88,102 +88,31 @@
     <t xml:space="preserve">SC-0001</t>
   </si>
   <si>
-    <t xml:space="preserve">Check if the “A/B Test Variation 1” header is present &amp; visible at the top of the “A/B Testing” page</t>
+    <t xml:space="preserve">A visitor clicks on the site logo on the Home page</t>
   </si>
   <si>
-    <t xml:space="preserve">TC-0001</t>
+    <t xml:space="preserve">Test-0001</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">The user is logged in to the “</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://the-internet.herokuapp.com/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
+    <t xml:space="preserve">The visitor is on the Home page &amp; not logged in yet</t>
   </si>
   <si>
-    <t xml:space="preserve">Click on the “A/B Testing”</t>
+    <t xml:space="preserve">Click on the site logo</t>
   </si>
   <si>
-    <t xml:space="preserve">Clicked</t>
+    <t xml:space="preserve">The site logo should be clicked</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">The “A/B Testing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">” page should open</t>
-    </r>
+    <t xml:space="preserve">Wait till the page reloads</t>
   </si>
   <si>
-    <t xml:space="preserve">Pass</t>
+    <t xml:space="preserve">The page should reload</t>
   </si>
   <si>
-    <t xml:space="preserve">Wait for the “A/B Testing” page to load</t>
+    <t xml:space="preserve">Check page URL</t>
   </si>
   <si>
-    <t xml:space="preserve">Loaded</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">The “A/B Testing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">” page should be loaded &amp; all elements on the page should be present</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if the “A/B Test Variation 1” header is visible at the top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The “A/B Test Variation 1” header should be visible at the top of the page</t>
+    <t xml:space="preserve">The page URL should not change</t>
   </si>
 </sst>
 </file>
@@ -194,11 +123,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -267,13 +197,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
@@ -282,7 +205,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,20 +214,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800080"/>
-        <bgColor rgb="FF800080"/>
       </patternFill>
     </fill>
     <fill>
@@ -355,53 +272,61 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -437,7 +362,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -484,13 +409,13 @@
   <dimension ref="A2:J1013"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="26.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="26.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="33.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="20.44"/>
@@ -588,6080 +513,7068 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" s="10" customFormat="true" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="13" customFormat="true" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" s="10" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
+    <row r="12" s="13" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" s="10" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
+    <row r="13" s="13" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>33</v>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="2"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="C14" s="1"/>
       <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="C15" s="1"/>
       <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="C16" s="1"/>
       <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="C17" s="1"/>
       <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
       <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
       <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
       <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
       <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
       <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="C24" s="1"/>
       <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="C25" s="1"/>
       <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
       <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
       <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="C28" s="1"/>
       <c r="F28" s="1"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="C29" s="1"/>
       <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
       <c r="C30" s="1"/>
       <c r="F30" s="1"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="C31" s="1"/>
       <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="C32" s="1"/>
       <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="C33" s="1"/>
       <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
       <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
       <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
       <c r="F36" s="1"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="C37" s="1"/>
       <c r="F37" s="1"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1"/>
       <c r="C38" s="1"/>
       <c r="F38" s="1"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
       <c r="C39" s="1"/>
       <c r="F39" s="1"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
       <c r="F40" s="1"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
       <c r="C41" s="1"/>
       <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
       <c r="F42" s="1"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
       <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
       <c r="F44" s="1"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
       <c r="F45" s="1"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
       <c r="F46" s="1"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
       <c r="F47" s="1"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
       <c r="C48" s="1"/>
       <c r="F48" s="1"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1"/>
       <c r="C49" s="1"/>
       <c r="F49" s="1"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
       <c r="C50" s="1"/>
       <c r="F50" s="1"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
       <c r="F51" s="1"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1"/>
       <c r="C52" s="1"/>
       <c r="F52" s="1"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1"/>
       <c r="C53" s="1"/>
       <c r="F53" s="1"/>
+      <c r="G53" s="2"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
       <c r="C54" s="1"/>
       <c r="F54" s="1"/>
+      <c r="G54" s="2"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1"/>
       <c r="C55" s="1"/>
       <c r="F55" s="1"/>
+      <c r="G55" s="2"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1"/>
       <c r="C56" s="1"/>
       <c r="F56" s="1"/>
+      <c r="G56" s="2"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
       <c r="C57" s="1"/>
       <c r="F57" s="1"/>
+      <c r="G57" s="2"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1"/>
       <c r="C58" s="1"/>
       <c r="F58" s="1"/>
+      <c r="G58" s="2"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1"/>
       <c r="C59" s="1"/>
       <c r="F59" s="1"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1"/>
       <c r="C60" s="1"/>
       <c r="F60" s="1"/>
+      <c r="G60" s="2"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
       <c r="C61" s="1"/>
       <c r="F61" s="1"/>
+      <c r="G61" s="2"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1"/>
       <c r="C62" s="1"/>
       <c r="F62" s="1"/>
+      <c r="G62" s="2"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="C63" s="1"/>
       <c r="F63" s="1"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="C64" s="1"/>
       <c r="F64" s="1"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1"/>
       <c r="C65" s="1"/>
       <c r="F65" s="1"/>
+      <c r="G65" s="2"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
       <c r="C66" s="1"/>
       <c r="F66" s="1"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1"/>
       <c r="C67" s="1"/>
       <c r="F67" s="1"/>
+      <c r="G67" s="2"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
       <c r="C68" s="1"/>
       <c r="F68" s="1"/>
+      <c r="G68" s="2"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1"/>
       <c r="C69" s="1"/>
       <c r="F69" s="1"/>
+      <c r="G69" s="2"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1"/>
       <c r="C70" s="1"/>
       <c r="F70" s="1"/>
+      <c r="G70" s="2"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
       <c r="C71" s="1"/>
       <c r="F71" s="1"/>
+      <c r="G71" s="2"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1"/>
       <c r="C72" s="1"/>
       <c r="F72" s="1"/>
+      <c r="G72" s="2"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
       <c r="F73" s="1"/>
+      <c r="G73" s="2"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
       <c r="F74" s="1"/>
+      <c r="G74" s="2"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
       <c r="F75" s="1"/>
+      <c r="G75" s="2"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1"/>
       <c r="C76" s="1"/>
       <c r="F76" s="1"/>
+      <c r="G76" s="2"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
       <c r="F77" s="1"/>
+      <c r="G77" s="2"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
       <c r="F78" s="1"/>
+      <c r="G78" s="2"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
       <c r="F79" s="1"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1"/>
       <c r="C80" s="1"/>
       <c r="F80" s="1"/>
+      <c r="G80" s="2"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
       <c r="F81" s="1"/>
+      <c r="G81" s="2"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
       <c r="F82" s="1"/>
+      <c r="G82" s="2"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
       <c r="F83" s="1"/>
+      <c r="G83" s="2"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
       <c r="F84" s="1"/>
+      <c r="G84" s="2"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
       <c r="F85" s="1"/>
+      <c r="G85" s="2"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
       <c r="F86" s="1"/>
+      <c r="G86" s="2"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
       <c r="F87" s="1"/>
+      <c r="G87" s="2"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
       <c r="F88" s="1"/>
+      <c r="G88" s="2"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
       <c r="F89" s="1"/>
+      <c r="G89" s="2"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
       <c r="F90" s="1"/>
+      <c r="G90" s="2"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
       <c r="F91" s="1"/>
+      <c r="G91" s="2"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
       <c r="F92" s="1"/>
+      <c r="G92" s="2"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
       <c r="F93" s="1"/>
+      <c r="G93" s="2"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
       <c r="F94" s="1"/>
+      <c r="G94" s="2"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
       <c r="F95" s="1"/>
+      <c r="G95" s="2"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
       <c r="F96" s="1"/>
+      <c r="G96" s="2"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
       <c r="F97" s="1"/>
+      <c r="G97" s="2"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
       <c r="F98" s="1"/>
+      <c r="G98" s="2"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
       <c r="F99" s="1"/>
+      <c r="G99" s="2"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
       <c r="F100" s="1"/>
+      <c r="G100" s="2"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
       <c r="F101" s="1"/>
+      <c r="G101" s="2"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
       <c r="F102" s="1"/>
+      <c r="G102" s="2"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
       <c r="F103" s="1"/>
+      <c r="G103" s="2"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
       <c r="F104" s="1"/>
+      <c r="G104" s="2"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
       <c r="F105" s="1"/>
+      <c r="G105" s="2"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
       <c r="F106" s="1"/>
+      <c r="G106" s="2"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
       <c r="F107" s="1"/>
+      <c r="G107" s="2"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
       <c r="F108" s="1"/>
+      <c r="G108" s="2"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
       <c r="F109" s="1"/>
+      <c r="G109" s="2"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
       <c r="F110" s="1"/>
+      <c r="G110" s="2"/>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
       <c r="F111" s="1"/>
+      <c r="G111" s="2"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
       <c r="F112" s="1"/>
+      <c r="G112" s="2"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
       <c r="F113" s="1"/>
+      <c r="G113" s="2"/>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
       <c r="F114" s="1"/>
+      <c r="G114" s="2"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
       <c r="F115" s="1"/>
+      <c r="G115" s="2"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
       <c r="F116" s="1"/>
+      <c r="G116" s="2"/>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
       <c r="F117" s="1"/>
+      <c r="G117" s="2"/>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
       <c r="F118" s="1"/>
+      <c r="G118" s="2"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
       <c r="F119" s="1"/>
+      <c r="G119" s="2"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
       <c r="F120" s="1"/>
+      <c r="G120" s="2"/>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
       <c r="F121" s="1"/>
+      <c r="G121" s="2"/>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
       <c r="F122" s="1"/>
+      <c r="G122" s="2"/>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
       <c r="F123" s="1"/>
+      <c r="G123" s="2"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
       <c r="F124" s="1"/>
+      <c r="G124" s="2"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
       <c r="F125" s="1"/>
+      <c r="G125" s="2"/>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
       <c r="F126" s="1"/>
+      <c r="G126" s="2"/>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
       <c r="F127" s="1"/>
+      <c r="G127" s="2"/>
       <c r="H127" s="3"/>
     </row>
-    <row r="128" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
       <c r="F128" s="1"/>
+      <c r="G128" s="2"/>
       <c r="H128" s="3"/>
     </row>
-    <row r="129" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
       <c r="F129" s="1"/>
+      <c r="G129" s="2"/>
       <c r="H129" s="3"/>
     </row>
-    <row r="130" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
       <c r="F130" s="1"/>
+      <c r="G130" s="2"/>
       <c r="H130" s="3"/>
     </row>
-    <row r="131" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
       <c r="F131" s="1"/>
+      <c r="G131" s="2"/>
       <c r="H131" s="3"/>
     </row>
-    <row r="132" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
       <c r="F132" s="1"/>
+      <c r="G132" s="2"/>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
       <c r="F133" s="1"/>
+      <c r="G133" s="2"/>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
       <c r="F134" s="1"/>
+      <c r="G134" s="2"/>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
       <c r="F135" s="1"/>
+      <c r="G135" s="2"/>
       <c r="H135" s="3"/>
     </row>
-    <row r="136" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
       <c r="F136" s="1"/>
+      <c r="G136" s="2"/>
       <c r="H136" s="3"/>
     </row>
-    <row r="137" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
       <c r="F137" s="1"/>
+      <c r="G137" s="2"/>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
       <c r="F138" s="1"/>
+      <c r="G138" s="2"/>
       <c r="H138" s="3"/>
     </row>
-    <row r="139" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1"/>
       <c r="C139" s="1"/>
       <c r="F139" s="1"/>
+      <c r="G139" s="2"/>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1"/>
       <c r="C140" s="1"/>
       <c r="F140" s="1"/>
+      <c r="G140" s="2"/>
       <c r="H140" s="3"/>
     </row>
-    <row r="141" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1"/>
       <c r="C141" s="1"/>
       <c r="F141" s="1"/>
+      <c r="G141" s="2"/>
       <c r="H141" s="3"/>
     </row>
-    <row r="142" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1"/>
       <c r="C142" s="1"/>
       <c r="F142" s="1"/>
+      <c r="G142" s="2"/>
       <c r="H142" s="3"/>
     </row>
-    <row r="143" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1"/>
       <c r="C143" s="1"/>
       <c r="F143" s="1"/>
+      <c r="G143" s="2"/>
       <c r="H143" s="3"/>
     </row>
-    <row r="144" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1"/>
       <c r="C144" s="1"/>
       <c r="F144" s="1"/>
+      <c r="G144" s="2"/>
       <c r="H144" s="3"/>
     </row>
-    <row r="145" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1"/>
       <c r="C145" s="1"/>
       <c r="F145" s="1"/>
+      <c r="G145" s="2"/>
       <c r="H145" s="3"/>
     </row>
-    <row r="146" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1"/>
       <c r="C146" s="1"/>
       <c r="F146" s="1"/>
+      <c r="G146" s="2"/>
       <c r="H146" s="3"/>
     </row>
-    <row r="147" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1"/>
       <c r="C147" s="1"/>
       <c r="F147" s="1"/>
+      <c r="G147" s="2"/>
       <c r="H147" s="3"/>
     </row>
-    <row r="148" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1"/>
       <c r="C148" s="1"/>
       <c r="F148" s="1"/>
+      <c r="G148" s="2"/>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1"/>
       <c r="C149" s="1"/>
       <c r="F149" s="1"/>
+      <c r="G149" s="2"/>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1"/>
       <c r="C150" s="1"/>
       <c r="F150" s="1"/>
+      <c r="G150" s="2"/>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1"/>
       <c r="C151" s="1"/>
       <c r="F151" s="1"/>
+      <c r="G151" s="2"/>
       <c r="H151" s="3"/>
     </row>
-    <row r="152" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1"/>
       <c r="C152" s="1"/>
       <c r="F152" s="1"/>
+      <c r="G152" s="2"/>
       <c r="H152" s="3"/>
     </row>
-    <row r="153" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1"/>
       <c r="C153" s="1"/>
       <c r="F153" s="1"/>
+      <c r="G153" s="2"/>
       <c r="H153" s="3"/>
     </row>
-    <row r="154" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1"/>
       <c r="C154" s="1"/>
       <c r="F154" s="1"/>
+      <c r="G154" s="2"/>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1"/>
       <c r="C155" s="1"/>
       <c r="F155" s="1"/>
+      <c r="G155" s="2"/>
       <c r="H155" s="3"/>
     </row>
-    <row r="156" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1"/>
       <c r="C156" s="1"/>
       <c r="F156" s="1"/>
+      <c r="G156" s="2"/>
       <c r="H156" s="3"/>
     </row>
-    <row r="157" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1"/>
       <c r="C157" s="1"/>
       <c r="F157" s="1"/>
+      <c r="G157" s="2"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1"/>
       <c r="C158" s="1"/>
       <c r="F158" s="1"/>
+      <c r="G158" s="2"/>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1"/>
       <c r="C159" s="1"/>
       <c r="F159" s="1"/>
+      <c r="G159" s="2"/>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1"/>
       <c r="C160" s="1"/>
       <c r="F160" s="1"/>
+      <c r="G160" s="2"/>
       <c r="H160" s="3"/>
     </row>
-    <row r="161" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1"/>
       <c r="C161" s="1"/>
       <c r="F161" s="1"/>
+      <c r="G161" s="2"/>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1"/>
       <c r="C162" s="1"/>
       <c r="F162" s="1"/>
+      <c r="G162" s="2"/>
       <c r="H162" s="3"/>
     </row>
-    <row r="163" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1"/>
       <c r="C163" s="1"/>
       <c r="F163" s="1"/>
+      <c r="G163" s="2"/>
       <c r="H163" s="3"/>
     </row>
-    <row r="164" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1"/>
       <c r="C164" s="1"/>
       <c r="F164" s="1"/>
+      <c r="G164" s="2"/>
       <c r="H164" s="3"/>
     </row>
-    <row r="165" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1"/>
       <c r="C165" s="1"/>
       <c r="F165" s="1"/>
+      <c r="G165" s="2"/>
       <c r="H165" s="3"/>
     </row>
-    <row r="166" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1"/>
       <c r="C166" s="1"/>
       <c r="F166" s="1"/>
+      <c r="G166" s="2"/>
       <c r="H166" s="3"/>
     </row>
-    <row r="167" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1"/>
       <c r="C167" s="1"/>
       <c r="F167" s="1"/>
+      <c r="G167" s="2"/>
       <c r="H167" s="3"/>
     </row>
-    <row r="168" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1"/>
       <c r="C168" s="1"/>
       <c r="F168" s="1"/>
+      <c r="G168" s="2"/>
       <c r="H168" s="3"/>
     </row>
-    <row r="169" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1"/>
       <c r="C169" s="1"/>
       <c r="F169" s="1"/>
+      <c r="G169" s="2"/>
       <c r="H169" s="3"/>
     </row>
-    <row r="170" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1"/>
       <c r="C170" s="1"/>
       <c r="F170" s="1"/>
+      <c r="G170" s="2"/>
       <c r="H170" s="3"/>
     </row>
-    <row r="171" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1"/>
       <c r="C171" s="1"/>
       <c r="F171" s="1"/>
+      <c r="G171" s="2"/>
       <c r="H171" s="3"/>
     </row>
-    <row r="172" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1"/>
       <c r="C172" s="1"/>
       <c r="F172" s="1"/>
+      <c r="G172" s="2"/>
       <c r="H172" s="3"/>
     </row>
-    <row r="173" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1"/>
       <c r="C173" s="1"/>
       <c r="F173" s="1"/>
+      <c r="G173" s="2"/>
       <c r="H173" s="3"/>
     </row>
-    <row r="174" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1"/>
       <c r="C174" s="1"/>
       <c r="F174" s="1"/>
+      <c r="G174" s="2"/>
       <c r="H174" s="3"/>
     </row>
-    <row r="175" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1"/>
       <c r="C175" s="1"/>
       <c r="F175" s="1"/>
+      <c r="G175" s="2"/>
       <c r="H175" s="3"/>
     </row>
-    <row r="176" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1"/>
       <c r="C176" s="1"/>
       <c r="F176" s="1"/>
+      <c r="G176" s="2"/>
       <c r="H176" s="3"/>
     </row>
-    <row r="177" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1"/>
       <c r="C177" s="1"/>
       <c r="F177" s="1"/>
+      <c r="G177" s="2"/>
       <c r="H177" s="3"/>
     </row>
-    <row r="178" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1"/>
       <c r="C178" s="1"/>
       <c r="F178" s="1"/>
+      <c r="G178" s="2"/>
       <c r="H178" s="3"/>
     </row>
-    <row r="179" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1"/>
       <c r="C179" s="1"/>
       <c r="F179" s="1"/>
+      <c r="G179" s="2"/>
       <c r="H179" s="3"/>
     </row>
-    <row r="180" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1"/>
       <c r="C180" s="1"/>
       <c r="F180" s="1"/>
+      <c r="G180" s="2"/>
       <c r="H180" s="3"/>
     </row>
-    <row r="181" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1"/>
       <c r="C181" s="1"/>
       <c r="F181" s="1"/>
+      <c r="G181" s="2"/>
       <c r="H181" s="3"/>
     </row>
-    <row r="182" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1"/>
       <c r="C182" s="1"/>
       <c r="F182" s="1"/>
+      <c r="G182" s="2"/>
       <c r="H182" s="3"/>
     </row>
-    <row r="183" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1"/>
       <c r="C183" s="1"/>
       <c r="F183" s="1"/>
+      <c r="G183" s="2"/>
       <c r="H183" s="3"/>
     </row>
-    <row r="184" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1"/>
       <c r="C184" s="1"/>
       <c r="F184" s="1"/>
+      <c r="G184" s="2"/>
       <c r="H184" s="3"/>
     </row>
-    <row r="185" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1"/>
       <c r="C185" s="1"/>
       <c r="F185" s="1"/>
+      <c r="G185" s="2"/>
       <c r="H185" s="3"/>
     </row>
-    <row r="186" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1"/>
       <c r="C186" s="1"/>
       <c r="F186" s="1"/>
+      <c r="G186" s="2"/>
       <c r="H186" s="3"/>
     </row>
-    <row r="187" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1"/>
       <c r="C187" s="1"/>
       <c r="F187" s="1"/>
+      <c r="G187" s="2"/>
       <c r="H187" s="3"/>
     </row>
-    <row r="188" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1"/>
       <c r="C188" s="1"/>
       <c r="F188" s="1"/>
+      <c r="G188" s="2"/>
       <c r="H188" s="3"/>
     </row>
-    <row r="189" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1"/>
       <c r="C189" s="1"/>
       <c r="F189" s="1"/>
+      <c r="G189" s="2"/>
       <c r="H189" s="3"/>
     </row>
-    <row r="190" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1"/>
       <c r="C190" s="1"/>
       <c r="F190" s="1"/>
+      <c r="G190" s="2"/>
       <c r="H190" s="3"/>
     </row>
-    <row r="191" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1"/>
       <c r="C191" s="1"/>
       <c r="F191" s="1"/>
+      <c r="G191" s="2"/>
       <c r="H191" s="3"/>
     </row>
-    <row r="192" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1"/>
       <c r="C192" s="1"/>
       <c r="F192" s="1"/>
+      <c r="G192" s="2"/>
       <c r="H192" s="3"/>
     </row>
-    <row r="193" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1"/>
       <c r="C193" s="1"/>
       <c r="F193" s="1"/>
+      <c r="G193" s="2"/>
       <c r="H193" s="3"/>
     </row>
-    <row r="194" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1"/>
       <c r="C194" s="1"/>
       <c r="F194" s="1"/>
+      <c r="G194" s="2"/>
       <c r="H194" s="3"/>
     </row>
-    <row r="195" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1"/>
       <c r="C195" s="1"/>
       <c r="F195" s="1"/>
+      <c r="G195" s="2"/>
       <c r="H195" s="3"/>
     </row>
-    <row r="196" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1"/>
       <c r="C196" s="1"/>
       <c r="F196" s="1"/>
+      <c r="G196" s="2"/>
       <c r="H196" s="3"/>
     </row>
-    <row r="197" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1"/>
       <c r="C197" s="1"/>
       <c r="F197" s="1"/>
+      <c r="G197" s="2"/>
       <c r="H197" s="3"/>
     </row>
-    <row r="198" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1"/>
       <c r="C198" s="1"/>
       <c r="F198" s="1"/>
+      <c r="G198" s="2"/>
       <c r="H198" s="3"/>
     </row>
-    <row r="199" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1"/>
       <c r="C199" s="1"/>
       <c r="F199" s="1"/>
+      <c r="G199" s="2"/>
       <c r="H199" s="3"/>
     </row>
-    <row r="200" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1"/>
       <c r="C200" s="1"/>
       <c r="F200" s="1"/>
+      <c r="G200" s="2"/>
       <c r="H200" s="3"/>
     </row>
-    <row r="201" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1"/>
       <c r="C201" s="1"/>
       <c r="F201" s="1"/>
+      <c r="G201" s="2"/>
       <c r="H201" s="3"/>
     </row>
-    <row r="202" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1"/>
       <c r="C202" s="1"/>
       <c r="F202" s="1"/>
+      <c r="G202" s="2"/>
       <c r="H202" s="3"/>
     </row>
-    <row r="203" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1"/>
       <c r="C203" s="1"/>
       <c r="F203" s="1"/>
+      <c r="G203" s="2"/>
       <c r="H203" s="3"/>
     </row>
-    <row r="204" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1"/>
       <c r="C204" s="1"/>
       <c r="F204" s="1"/>
+      <c r="G204" s="2"/>
       <c r="H204" s="3"/>
     </row>
-    <row r="205" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1"/>
       <c r="C205" s="1"/>
       <c r="F205" s="1"/>
+      <c r="G205" s="2"/>
       <c r="H205" s="3"/>
     </row>
-    <row r="206" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1"/>
       <c r="C206" s="1"/>
       <c r="F206" s="1"/>
+      <c r="G206" s="2"/>
       <c r="H206" s="3"/>
     </row>
-    <row r="207" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1"/>
       <c r="C207" s="1"/>
       <c r="F207" s="1"/>
+      <c r="G207" s="2"/>
       <c r="H207" s="3"/>
     </row>
-    <row r="208" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1"/>
       <c r="C208" s="1"/>
       <c r="F208" s="1"/>
+      <c r="G208" s="2"/>
       <c r="H208" s="3"/>
     </row>
-    <row r="209" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1"/>
       <c r="C209" s="1"/>
       <c r="F209" s="1"/>
+      <c r="G209" s="2"/>
       <c r="H209" s="3"/>
     </row>
-    <row r="210" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1"/>
       <c r="C210" s="1"/>
       <c r="F210" s="1"/>
+      <c r="G210" s="2"/>
       <c r="H210" s="3"/>
     </row>
-    <row r="211" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1"/>
       <c r="C211" s="1"/>
       <c r="F211" s="1"/>
+      <c r="G211" s="2"/>
       <c r="H211" s="3"/>
     </row>
-    <row r="212" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1"/>
       <c r="C212" s="1"/>
       <c r="F212" s="1"/>
+      <c r="G212" s="2"/>
       <c r="H212" s="3"/>
     </row>
-    <row r="213" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1"/>
       <c r="C213" s="1"/>
       <c r="F213" s="1"/>
+      <c r="G213" s="2"/>
       <c r="H213" s="3"/>
     </row>
-    <row r="214" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
       <c r="F214" s="1"/>
+      <c r="G214" s="2"/>
       <c r="H214" s="3"/>
     </row>
-    <row r="215" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
       <c r="F215" s="1"/>
+      <c r="G215" s="2"/>
       <c r="H215" s="3"/>
     </row>
-    <row r="216" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
       <c r="F216" s="1"/>
+      <c r="G216" s="2"/>
       <c r="H216" s="3"/>
     </row>
-    <row r="217" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
       <c r="F217" s="1"/>
+      <c r="G217" s="2"/>
       <c r="H217" s="3"/>
     </row>
-    <row r="218" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
       <c r="F218" s="1"/>
+      <c r="G218" s="2"/>
       <c r="H218" s="3"/>
     </row>
-    <row r="219" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
       <c r="F219" s="1"/>
+      <c r="G219" s="2"/>
       <c r="H219" s="3"/>
     </row>
-    <row r="220" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
       <c r="F220" s="1"/>
+      <c r="G220" s="2"/>
       <c r="H220" s="3"/>
     </row>
-    <row r="221" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
       <c r="F221" s="1"/>
+      <c r="G221" s="2"/>
       <c r="H221" s="3"/>
     </row>
-    <row r="222" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
       <c r="F222" s="1"/>
+      <c r="G222" s="2"/>
       <c r="H222" s="3"/>
     </row>
-    <row r="223" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
       <c r="F223" s="1"/>
+      <c r="G223" s="2"/>
       <c r="H223" s="3"/>
     </row>
-    <row r="224" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
       <c r="F224" s="1"/>
+      <c r="G224" s="2"/>
       <c r="H224" s="3"/>
     </row>
-    <row r="225" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
       <c r="F225" s="1"/>
+      <c r="G225" s="2"/>
       <c r="H225" s="3"/>
     </row>
-    <row r="226" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
       <c r="F226" s="1"/>
+      <c r="G226" s="2"/>
       <c r="H226" s="3"/>
     </row>
-    <row r="227" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
       <c r="F227" s="1"/>
+      <c r="G227" s="2"/>
       <c r="H227" s="3"/>
     </row>
-    <row r="228" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
       <c r="F228" s="1"/>
+      <c r="G228" s="2"/>
       <c r="H228" s="3"/>
     </row>
-    <row r="229" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
       <c r="F229" s="1"/>
+      <c r="G229" s="2"/>
       <c r="H229" s="3"/>
     </row>
-    <row r="230" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
       <c r="F230" s="1"/>
+      <c r="G230" s="2"/>
       <c r="H230" s="3"/>
     </row>
-    <row r="231" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
       <c r="F231" s="1"/>
+      <c r="G231" s="2"/>
       <c r="H231" s="3"/>
     </row>
-    <row r="232" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
       <c r="F232" s="1"/>
+      <c r="G232" s="2"/>
       <c r="H232" s="3"/>
     </row>
-    <row r="233" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
       <c r="F233" s="1"/>
+      <c r="G233" s="2"/>
       <c r="H233" s="3"/>
     </row>
-    <row r="234" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
       <c r="F234" s="1"/>
+      <c r="G234" s="2"/>
       <c r="H234" s="3"/>
     </row>
-    <row r="235" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
       <c r="F235" s="1"/>
+      <c r="G235" s="2"/>
       <c r="H235" s="3"/>
     </row>
-    <row r="236" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
       <c r="F236" s="1"/>
+      <c r="G236" s="2"/>
       <c r="H236" s="3"/>
     </row>
-    <row r="237" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
       <c r="F237" s="1"/>
+      <c r="G237" s="2"/>
       <c r="H237" s="3"/>
     </row>
-    <row r="238" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1"/>
       <c r="C238" s="1"/>
       <c r="F238" s="1"/>
+      <c r="G238" s="2"/>
       <c r="H238" s="3"/>
     </row>
-    <row r="239" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1"/>
       <c r="C239" s="1"/>
       <c r="F239" s="1"/>
+      <c r="G239" s="2"/>
       <c r="H239" s="3"/>
     </row>
-    <row r="240" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1"/>
       <c r="C240" s="1"/>
       <c r="F240" s="1"/>
+      <c r="G240" s="2"/>
       <c r="H240" s="3"/>
     </row>
-    <row r="241" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1"/>
       <c r="C241" s="1"/>
       <c r="F241" s="1"/>
+      <c r="G241" s="2"/>
       <c r="H241" s="3"/>
     </row>
-    <row r="242" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1"/>
       <c r="C242" s="1"/>
       <c r="F242" s="1"/>
+      <c r="G242" s="2"/>
       <c r="H242" s="3"/>
     </row>
-    <row r="243" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1"/>
       <c r="C243" s="1"/>
       <c r="F243" s="1"/>
+      <c r="G243" s="2"/>
       <c r="H243" s="3"/>
     </row>
-    <row r="244" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1"/>
       <c r="C244" s="1"/>
       <c r="F244" s="1"/>
+      <c r="G244" s="2"/>
       <c r="H244" s="3"/>
     </row>
-    <row r="245" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1"/>
       <c r="C245" s="1"/>
       <c r="F245" s="1"/>
+      <c r="G245" s="2"/>
       <c r="H245" s="3"/>
     </row>
-    <row r="246" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1"/>
       <c r="C246" s="1"/>
       <c r="F246" s="1"/>
+      <c r="G246" s="2"/>
       <c r="H246" s="3"/>
     </row>
-    <row r="247" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1"/>
       <c r="C247" s="1"/>
       <c r="F247" s="1"/>
+      <c r="G247" s="2"/>
       <c r="H247" s="3"/>
     </row>
-    <row r="248" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1"/>
       <c r="C248" s="1"/>
       <c r="F248" s="1"/>
+      <c r="G248" s="2"/>
       <c r="H248" s="3"/>
     </row>
-    <row r="249" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1"/>
       <c r="C249" s="1"/>
       <c r="F249" s="1"/>
+      <c r="G249" s="2"/>
       <c r="H249" s="3"/>
     </row>
-    <row r="250" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1"/>
       <c r="C250" s="1"/>
       <c r="F250" s="1"/>
+      <c r="G250" s="2"/>
       <c r="H250" s="3"/>
     </row>
-    <row r="251" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1"/>
       <c r="C251" s="1"/>
       <c r="F251" s="1"/>
+      <c r="G251" s="2"/>
       <c r="H251" s="3"/>
     </row>
-    <row r="252" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1"/>
       <c r="C252" s="1"/>
       <c r="F252" s="1"/>
+      <c r="G252" s="2"/>
       <c r="H252" s="3"/>
     </row>
-    <row r="253" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1"/>
       <c r="C253" s="1"/>
       <c r="F253" s="1"/>
+      <c r="G253" s="2"/>
       <c r="H253" s="3"/>
     </row>
-    <row r="254" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1"/>
       <c r="C254" s="1"/>
       <c r="F254" s="1"/>
+      <c r="G254" s="2"/>
       <c r="H254" s="3"/>
     </row>
-    <row r="255" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1"/>
       <c r="C255" s="1"/>
       <c r="F255" s="1"/>
+      <c r="G255" s="2"/>
       <c r="H255" s="3"/>
     </row>
-    <row r="256" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1"/>
       <c r="C256" s="1"/>
       <c r="F256" s="1"/>
+      <c r="G256" s="2"/>
       <c r="H256" s="3"/>
     </row>
-    <row r="257" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1"/>
       <c r="C257" s="1"/>
       <c r="F257" s="1"/>
+      <c r="G257" s="2"/>
       <c r="H257" s="3"/>
     </row>
-    <row r="258" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1"/>
       <c r="C258" s="1"/>
       <c r="F258" s="1"/>
+      <c r="G258" s="2"/>
       <c r="H258" s="3"/>
     </row>
-    <row r="259" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1"/>
       <c r="C259" s="1"/>
       <c r="F259" s="1"/>
+      <c r="G259" s="2"/>
       <c r="H259" s="3"/>
     </row>
-    <row r="260" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1"/>
       <c r="C260" s="1"/>
       <c r="F260" s="1"/>
+      <c r="G260" s="2"/>
       <c r="H260" s="3"/>
     </row>
-    <row r="261" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1"/>
       <c r="C261" s="1"/>
       <c r="F261" s="1"/>
+      <c r="G261" s="2"/>
       <c r="H261" s="3"/>
     </row>
-    <row r="262" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1"/>
       <c r="C262" s="1"/>
       <c r="F262" s="1"/>
+      <c r="G262" s="2"/>
       <c r="H262" s="3"/>
     </row>
-    <row r="263" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1"/>
       <c r="C263" s="1"/>
       <c r="F263" s="1"/>
+      <c r="G263" s="2"/>
       <c r="H263" s="3"/>
     </row>
-    <row r="264" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1"/>
       <c r="C264" s="1"/>
       <c r="F264" s="1"/>
+      <c r="G264" s="2"/>
       <c r="H264" s="3"/>
     </row>
-    <row r="265" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1"/>
       <c r="C265" s="1"/>
       <c r="F265" s="1"/>
+      <c r="G265" s="2"/>
       <c r="H265" s="3"/>
     </row>
-    <row r="266" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1"/>
       <c r="C266" s="1"/>
       <c r="F266" s="1"/>
+      <c r="G266" s="2"/>
       <c r="H266" s="3"/>
     </row>
-    <row r="267" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1"/>
       <c r="C267" s="1"/>
       <c r="F267" s="1"/>
+      <c r="G267" s="2"/>
       <c r="H267" s="3"/>
     </row>
-    <row r="268" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1"/>
       <c r="C268" s="1"/>
       <c r="F268" s="1"/>
+      <c r="G268" s="2"/>
       <c r="H268" s="3"/>
     </row>
-    <row r="269" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1"/>
       <c r="C269" s="1"/>
       <c r="F269" s="1"/>
+      <c r="G269" s="2"/>
       <c r="H269" s="3"/>
     </row>
-    <row r="270" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1"/>
       <c r="C270" s="1"/>
       <c r="F270" s="1"/>
+      <c r="G270" s="2"/>
       <c r="H270" s="3"/>
     </row>
-    <row r="271" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1"/>
       <c r="C271" s="1"/>
       <c r="F271" s="1"/>
+      <c r="G271" s="2"/>
       <c r="H271" s="3"/>
     </row>
-    <row r="272" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1"/>
       <c r="C272" s="1"/>
       <c r="F272" s="1"/>
+      <c r="G272" s="2"/>
       <c r="H272" s="3"/>
     </row>
-    <row r="273" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1"/>
       <c r="C273" s="1"/>
       <c r="F273" s="1"/>
+      <c r="G273" s="2"/>
       <c r="H273" s="3"/>
     </row>
-    <row r="274" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1"/>
       <c r="C274" s="1"/>
       <c r="F274" s="1"/>
+      <c r="G274" s="2"/>
       <c r="H274" s="3"/>
     </row>
-    <row r="275" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1"/>
       <c r="C275" s="1"/>
       <c r="F275" s="1"/>
+      <c r="G275" s="2"/>
       <c r="H275" s="3"/>
     </row>
-    <row r="276" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1"/>
       <c r="C276" s="1"/>
       <c r="F276" s="1"/>
+      <c r="G276" s="2"/>
       <c r="H276" s="3"/>
     </row>
-    <row r="277" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1"/>
       <c r="C277" s="1"/>
       <c r="F277" s="1"/>
+      <c r="G277" s="2"/>
       <c r="H277" s="3"/>
     </row>
-    <row r="278" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1"/>
       <c r="C278" s="1"/>
       <c r="F278" s="1"/>
+      <c r="G278" s="2"/>
       <c r="H278" s="3"/>
     </row>
-    <row r="279" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1"/>
       <c r="C279" s="1"/>
       <c r="F279" s="1"/>
+      <c r="G279" s="2"/>
       <c r="H279" s="3"/>
     </row>
-    <row r="280" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1"/>
       <c r="C280" s="1"/>
       <c r="F280" s="1"/>
+      <c r="G280" s="2"/>
       <c r="H280" s="3"/>
     </row>
-    <row r="281" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1"/>
       <c r="C281" s="1"/>
       <c r="F281" s="1"/>
+      <c r="G281" s="2"/>
       <c r="H281" s="3"/>
     </row>
-    <row r="282" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1"/>
       <c r="C282" s="1"/>
       <c r="F282" s="1"/>
+      <c r="G282" s="2"/>
       <c r="H282" s="3"/>
     </row>
-    <row r="283" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1"/>
       <c r="C283" s="1"/>
       <c r="F283" s="1"/>
+      <c r="G283" s="2"/>
       <c r="H283" s="3"/>
     </row>
-    <row r="284" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1"/>
       <c r="C284" s="1"/>
       <c r="F284" s="1"/>
+      <c r="G284" s="2"/>
       <c r="H284" s="3"/>
     </row>
-    <row r="285" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1"/>
       <c r="C285" s="1"/>
       <c r="F285" s="1"/>
+      <c r="G285" s="2"/>
       <c r="H285" s="3"/>
     </row>
-    <row r="286" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1"/>
       <c r="C286" s="1"/>
       <c r="F286" s="1"/>
+      <c r="G286" s="2"/>
       <c r="H286" s="3"/>
     </row>
-    <row r="287" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1"/>
       <c r="C287" s="1"/>
       <c r="F287" s="1"/>
+      <c r="G287" s="2"/>
       <c r="H287" s="3"/>
     </row>
-    <row r="288" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1"/>
       <c r="C288" s="1"/>
       <c r="F288" s="1"/>
+      <c r="G288" s="2"/>
       <c r="H288" s="3"/>
     </row>
-    <row r="289" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1"/>
       <c r="C289" s="1"/>
       <c r="F289" s="1"/>
+      <c r="G289" s="2"/>
       <c r="H289" s="3"/>
     </row>
-    <row r="290" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1"/>
       <c r="C290" s="1"/>
       <c r="F290" s="1"/>
+      <c r="G290" s="2"/>
       <c r="H290" s="3"/>
     </row>
-    <row r="291" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1"/>
       <c r="C291" s="1"/>
       <c r="F291" s="1"/>
+      <c r="G291" s="2"/>
       <c r="H291" s="3"/>
     </row>
-    <row r="292" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1"/>
       <c r="C292" s="1"/>
       <c r="F292" s="1"/>
+      <c r="G292" s="2"/>
       <c r="H292" s="3"/>
     </row>
-    <row r="293" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1"/>
       <c r="C293" s="1"/>
       <c r="F293" s="1"/>
+      <c r="G293" s="2"/>
       <c r="H293" s="3"/>
     </row>
-    <row r="294" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1"/>
       <c r="C294" s="1"/>
       <c r="F294" s="1"/>
+      <c r="G294" s="2"/>
       <c r="H294" s="3"/>
     </row>
-    <row r="295" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1"/>
       <c r="C295" s="1"/>
       <c r="F295" s="1"/>
+      <c r="G295" s="2"/>
       <c r="H295" s="3"/>
     </row>
-    <row r="296" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1"/>
       <c r="C296" s="1"/>
       <c r="F296" s="1"/>
+      <c r="G296" s="2"/>
       <c r="H296" s="3"/>
     </row>
-    <row r="297" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1"/>
       <c r="C297" s="1"/>
       <c r="F297" s="1"/>
+      <c r="G297" s="2"/>
       <c r="H297" s="3"/>
     </row>
-    <row r="298" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1"/>
       <c r="C298" s="1"/>
       <c r="F298" s="1"/>
+      <c r="G298" s="2"/>
       <c r="H298" s="3"/>
     </row>
-    <row r="299" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1"/>
       <c r="C299" s="1"/>
       <c r="F299" s="1"/>
+      <c r="G299" s="2"/>
       <c r="H299" s="3"/>
     </row>
-    <row r="300" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1"/>
       <c r="C300" s="1"/>
       <c r="F300" s="1"/>
+      <c r="G300" s="2"/>
       <c r="H300" s="3"/>
     </row>
-    <row r="301" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1"/>
       <c r="C301" s="1"/>
       <c r="F301" s="1"/>
+      <c r="G301" s="2"/>
       <c r="H301" s="3"/>
     </row>
-    <row r="302" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1"/>
       <c r="C302" s="1"/>
       <c r="F302" s="1"/>
+      <c r="G302" s="2"/>
       <c r="H302" s="3"/>
     </row>
-    <row r="303" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1"/>
       <c r="C303" s="1"/>
       <c r="F303" s="1"/>
+      <c r="G303" s="2"/>
       <c r="H303" s="3"/>
     </row>
-    <row r="304" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1"/>
       <c r="C304" s="1"/>
       <c r="F304" s="1"/>
+      <c r="G304" s="2"/>
       <c r="H304" s="3"/>
     </row>
-    <row r="305" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1"/>
       <c r="C305" s="1"/>
       <c r="F305" s="1"/>
+      <c r="G305" s="2"/>
       <c r="H305" s="3"/>
     </row>
-    <row r="306" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1"/>
       <c r="C306" s="1"/>
       <c r="F306" s="1"/>
+      <c r="G306" s="2"/>
       <c r="H306" s="3"/>
     </row>
-    <row r="307" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1"/>
       <c r="C307" s="1"/>
       <c r="F307" s="1"/>
+      <c r="G307" s="2"/>
       <c r="H307" s="3"/>
     </row>
-    <row r="308" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1"/>
       <c r="C308" s="1"/>
       <c r="F308" s="1"/>
+      <c r="G308" s="2"/>
       <c r="H308" s="3"/>
     </row>
-    <row r="309" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1"/>
       <c r="C309" s="1"/>
       <c r="F309" s="1"/>
+      <c r="G309" s="2"/>
       <c r="H309" s="3"/>
     </row>
-    <row r="310" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1"/>
       <c r="C310" s="1"/>
       <c r="F310" s="1"/>
+      <c r="G310" s="2"/>
       <c r="H310" s="3"/>
     </row>
-    <row r="311" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1"/>
       <c r="C311" s="1"/>
       <c r="F311" s="1"/>
+      <c r="G311" s="2"/>
       <c r="H311" s="3"/>
     </row>
-    <row r="312" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1"/>
       <c r="C312" s="1"/>
       <c r="F312" s="1"/>
+      <c r="G312" s="2"/>
       <c r="H312" s="3"/>
     </row>
-    <row r="313" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1"/>
       <c r="C313" s="1"/>
       <c r="F313" s="1"/>
+      <c r="G313" s="2"/>
       <c r="H313" s="3"/>
     </row>
-    <row r="314" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1"/>
       <c r="C314" s="1"/>
       <c r="F314" s="1"/>
+      <c r="G314" s="2"/>
       <c r="H314" s="3"/>
     </row>
-    <row r="315" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1"/>
       <c r="C315" s="1"/>
       <c r="F315" s="1"/>
+      <c r="G315" s="2"/>
       <c r="H315" s="3"/>
     </row>
-    <row r="316" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1"/>
       <c r="C316" s="1"/>
       <c r="F316" s="1"/>
+      <c r="G316" s="2"/>
       <c r="H316" s="3"/>
     </row>
-    <row r="317" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1"/>
       <c r="C317" s="1"/>
       <c r="F317" s="1"/>
+      <c r="G317" s="2"/>
       <c r="H317" s="3"/>
     </row>
-    <row r="318" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1"/>
       <c r="C318" s="1"/>
       <c r="F318" s="1"/>
+      <c r="G318" s="2"/>
       <c r="H318" s="3"/>
     </row>
-    <row r="319" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1"/>
       <c r="C319" s="1"/>
       <c r="F319" s="1"/>
+      <c r="G319" s="2"/>
       <c r="H319" s="3"/>
     </row>
-    <row r="320" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1"/>
       <c r="C320" s="1"/>
       <c r="F320" s="1"/>
+      <c r="G320" s="2"/>
       <c r="H320" s="3"/>
     </row>
-    <row r="321" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1"/>
       <c r="C321" s="1"/>
       <c r="F321" s="1"/>
+      <c r="G321" s="2"/>
       <c r="H321" s="3"/>
     </row>
-    <row r="322" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1"/>
       <c r="C322" s="1"/>
       <c r="F322" s="1"/>
+      <c r="G322" s="2"/>
       <c r="H322" s="3"/>
     </row>
-    <row r="323" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1"/>
       <c r="C323" s="1"/>
       <c r="F323" s="1"/>
+      <c r="G323" s="2"/>
       <c r="H323" s="3"/>
     </row>
-    <row r="324" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1"/>
       <c r="C324" s="1"/>
       <c r="F324" s="1"/>
+      <c r="G324" s="2"/>
       <c r="H324" s="3"/>
     </row>
-    <row r="325" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1"/>
       <c r="C325" s="1"/>
       <c r="F325" s="1"/>
+      <c r="G325" s="2"/>
       <c r="H325" s="3"/>
     </row>
-    <row r="326" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1"/>
       <c r="C326" s="1"/>
       <c r="F326" s="1"/>
+      <c r="G326" s="2"/>
       <c r="H326" s="3"/>
     </row>
-    <row r="327" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1"/>
       <c r="C327" s="1"/>
       <c r="F327" s="1"/>
+      <c r="G327" s="2"/>
       <c r="H327" s="3"/>
     </row>
-    <row r="328" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1"/>
       <c r="C328" s="1"/>
       <c r="F328" s="1"/>
+      <c r="G328" s="2"/>
       <c r="H328" s="3"/>
     </row>
-    <row r="329" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1"/>
       <c r="C329" s="1"/>
       <c r="F329" s="1"/>
+      <c r="G329" s="2"/>
       <c r="H329" s="3"/>
     </row>
-    <row r="330" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1"/>
       <c r="C330" s="1"/>
       <c r="F330" s="1"/>
+      <c r="G330" s="2"/>
       <c r="H330" s="3"/>
     </row>
-    <row r="331" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1"/>
       <c r="C331" s="1"/>
       <c r="F331" s="1"/>
+      <c r="G331" s="2"/>
       <c r="H331" s="3"/>
     </row>
-    <row r="332" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1"/>
       <c r="C332" s="1"/>
       <c r="F332" s="1"/>
+      <c r="G332" s="2"/>
       <c r="H332" s="3"/>
     </row>
-    <row r="333" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1"/>
       <c r="C333" s="1"/>
       <c r="F333" s="1"/>
+      <c r="G333" s="2"/>
       <c r="H333" s="3"/>
     </row>
-    <row r="334" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1"/>
       <c r="C334" s="1"/>
       <c r="F334" s="1"/>
+      <c r="G334" s="2"/>
       <c r="H334" s="3"/>
     </row>
-    <row r="335" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1"/>
       <c r="C335" s="1"/>
       <c r="F335" s="1"/>
+      <c r="G335" s="2"/>
       <c r="H335" s="3"/>
     </row>
-    <row r="336" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1"/>
       <c r="C336" s="1"/>
       <c r="F336" s="1"/>
+      <c r="G336" s="2"/>
       <c r="H336" s="3"/>
     </row>
-    <row r="337" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1"/>
       <c r="C337" s="1"/>
       <c r="F337" s="1"/>
+      <c r="G337" s="2"/>
       <c r="H337" s="3"/>
     </row>
-    <row r="338" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1"/>
       <c r="C338" s="1"/>
       <c r="F338" s="1"/>
+      <c r="G338" s="2"/>
       <c r="H338" s="3"/>
     </row>
-    <row r="339" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1"/>
       <c r="C339" s="1"/>
       <c r="F339" s="1"/>
+      <c r="G339" s="2"/>
       <c r="H339" s="3"/>
     </row>
-    <row r="340" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1"/>
       <c r="C340" s="1"/>
       <c r="F340" s="1"/>
+      <c r="G340" s="2"/>
       <c r="H340" s="3"/>
     </row>
-    <row r="341" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1"/>
       <c r="C341" s="1"/>
       <c r="F341" s="1"/>
+      <c r="G341" s="2"/>
       <c r="H341" s="3"/>
     </row>
-    <row r="342" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1"/>
       <c r="C342" s="1"/>
       <c r="F342" s="1"/>
+      <c r="G342" s="2"/>
       <c r="H342" s="3"/>
     </row>
-    <row r="343" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1"/>
       <c r="C343" s="1"/>
       <c r="F343" s="1"/>
+      <c r="G343" s="2"/>
       <c r="H343" s="3"/>
     </row>
-    <row r="344" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1"/>
       <c r="C344" s="1"/>
       <c r="F344" s="1"/>
+      <c r="G344" s="2"/>
       <c r="H344" s="3"/>
     </row>
-    <row r="345" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1"/>
       <c r="C345" s="1"/>
       <c r="F345" s="1"/>
+      <c r="G345" s="2"/>
       <c r="H345" s="3"/>
     </row>
-    <row r="346" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1"/>
       <c r="C346" s="1"/>
       <c r="F346" s="1"/>
+      <c r="G346" s="2"/>
       <c r="H346" s="3"/>
     </row>
-    <row r="347" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1"/>
       <c r="C347" s="1"/>
       <c r="F347" s="1"/>
+      <c r="G347" s="2"/>
       <c r="H347" s="3"/>
     </row>
-    <row r="348" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1"/>
       <c r="C348" s="1"/>
       <c r="F348" s="1"/>
+      <c r="G348" s="2"/>
       <c r="H348" s="3"/>
     </row>
-    <row r="349" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1"/>
       <c r="C349" s="1"/>
       <c r="F349" s="1"/>
+      <c r="G349" s="2"/>
       <c r="H349" s="3"/>
     </row>
-    <row r="350" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1"/>
       <c r="C350" s="1"/>
       <c r="F350" s="1"/>
+      <c r="G350" s="2"/>
       <c r="H350" s="3"/>
     </row>
-    <row r="351" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1"/>
       <c r="C351" s="1"/>
       <c r="F351" s="1"/>
+      <c r="G351" s="2"/>
       <c r="H351" s="3"/>
     </row>
-    <row r="352" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1"/>
       <c r="C352" s="1"/>
       <c r="F352" s="1"/>
+      <c r="G352" s="2"/>
       <c r="H352" s="3"/>
     </row>
-    <row r="353" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1"/>
       <c r="C353" s="1"/>
       <c r="F353" s="1"/>
+      <c r="G353" s="2"/>
       <c r="H353" s="3"/>
     </row>
-    <row r="354" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1"/>
       <c r="C354" s="1"/>
       <c r="F354" s="1"/>
+      <c r="G354" s="2"/>
       <c r="H354" s="3"/>
     </row>
-    <row r="355" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1"/>
       <c r="C355" s="1"/>
       <c r="F355" s="1"/>
+      <c r="G355" s="2"/>
       <c r="H355" s="3"/>
     </row>
-    <row r="356" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1"/>
       <c r="C356" s="1"/>
       <c r="F356" s="1"/>
+      <c r="G356" s="2"/>
       <c r="H356" s="3"/>
     </row>
-    <row r="357" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1"/>
       <c r="C357" s="1"/>
       <c r="F357" s="1"/>
+      <c r="G357" s="2"/>
       <c r="H357" s="3"/>
     </row>
-    <row r="358" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1"/>
       <c r="C358" s="1"/>
       <c r="F358" s="1"/>
+      <c r="G358" s="2"/>
       <c r="H358" s="3"/>
     </row>
-    <row r="359" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1"/>
       <c r="C359" s="1"/>
       <c r="F359" s="1"/>
+      <c r="G359" s="2"/>
       <c r="H359" s="3"/>
     </row>
-    <row r="360" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1"/>
       <c r="C360" s="1"/>
       <c r="F360" s="1"/>
+      <c r="G360" s="2"/>
       <c r="H360" s="3"/>
     </row>
-    <row r="361" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1"/>
       <c r="C361" s="1"/>
       <c r="F361" s="1"/>
+      <c r="G361" s="2"/>
       <c r="H361" s="3"/>
     </row>
-    <row r="362" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1"/>
       <c r="C362" s="1"/>
       <c r="F362" s="1"/>
+      <c r="G362" s="2"/>
       <c r="H362" s="3"/>
     </row>
-    <row r="363" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1"/>
       <c r="C363" s="1"/>
       <c r="F363" s="1"/>
+      <c r="G363" s="2"/>
       <c r="H363" s="3"/>
     </row>
-    <row r="364" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1"/>
       <c r="C364" s="1"/>
       <c r="F364" s="1"/>
+      <c r="G364" s="2"/>
       <c r="H364" s="3"/>
     </row>
-    <row r="365" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1"/>
       <c r="C365" s="1"/>
       <c r="F365" s="1"/>
+      <c r="G365" s="2"/>
       <c r="H365" s="3"/>
     </row>
-    <row r="366" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1"/>
       <c r="C366" s="1"/>
       <c r="F366" s="1"/>
+      <c r="G366" s="2"/>
       <c r="H366" s="3"/>
     </row>
-    <row r="367" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1"/>
       <c r="C367" s="1"/>
       <c r="F367" s="1"/>
+      <c r="G367" s="2"/>
       <c r="H367" s="3"/>
     </row>
-    <row r="368" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1"/>
       <c r="C368" s="1"/>
       <c r="F368" s="1"/>
+      <c r="G368" s="2"/>
       <c r="H368" s="3"/>
     </row>
-    <row r="369" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1"/>
       <c r="C369" s="1"/>
       <c r="F369" s="1"/>
+      <c r="G369" s="2"/>
       <c r="H369" s="3"/>
     </row>
-    <row r="370" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1"/>
       <c r="C370" s="1"/>
       <c r="F370" s="1"/>
+      <c r="G370" s="2"/>
       <c r="H370" s="3"/>
     </row>
-    <row r="371" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1"/>
       <c r="C371" s="1"/>
       <c r="F371" s="1"/>
+      <c r="G371" s="2"/>
       <c r="H371" s="3"/>
     </row>
-    <row r="372" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1"/>
       <c r="C372" s="1"/>
       <c r="F372" s="1"/>
+      <c r="G372" s="2"/>
       <c r="H372" s="3"/>
     </row>
-    <row r="373" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1"/>
       <c r="C373" s="1"/>
       <c r="F373" s="1"/>
+      <c r="G373" s="2"/>
       <c r="H373" s="3"/>
     </row>
-    <row r="374" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1"/>
       <c r="C374" s="1"/>
       <c r="F374" s="1"/>
+      <c r="G374" s="2"/>
       <c r="H374" s="3"/>
     </row>
-    <row r="375" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1"/>
       <c r="C375" s="1"/>
       <c r="F375" s="1"/>
+      <c r="G375" s="2"/>
       <c r="H375" s="3"/>
     </row>
-    <row r="376" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1"/>
       <c r="C376" s="1"/>
       <c r="F376" s="1"/>
+      <c r="G376" s="2"/>
       <c r="H376" s="3"/>
     </row>
-    <row r="377" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1"/>
       <c r="C377" s="1"/>
       <c r="F377" s="1"/>
+      <c r="G377" s="2"/>
       <c r="H377" s="3"/>
     </row>
-    <row r="378" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1"/>
       <c r="C378" s="1"/>
       <c r="F378" s="1"/>
+      <c r="G378" s="2"/>
       <c r="H378" s="3"/>
     </row>
-    <row r="379" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1"/>
       <c r="C379" s="1"/>
       <c r="F379" s="1"/>
+      <c r="G379" s="2"/>
       <c r="H379" s="3"/>
     </row>
-    <row r="380" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1"/>
       <c r="C380" s="1"/>
       <c r="F380" s="1"/>
+      <c r="G380" s="2"/>
       <c r="H380" s="3"/>
     </row>
-    <row r="381" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1"/>
       <c r="C381" s="1"/>
       <c r="F381" s="1"/>
+      <c r="G381" s="2"/>
       <c r="H381" s="3"/>
     </row>
-    <row r="382" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1"/>
       <c r="C382" s="1"/>
       <c r="F382" s="1"/>
+      <c r="G382" s="2"/>
       <c r="H382" s="3"/>
     </row>
-    <row r="383" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1"/>
       <c r="C383" s="1"/>
       <c r="F383" s="1"/>
+      <c r="G383" s="2"/>
       <c r="H383" s="3"/>
     </row>
-    <row r="384" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1"/>
       <c r="C384" s="1"/>
       <c r="F384" s="1"/>
+      <c r="G384" s="2"/>
       <c r="H384" s="3"/>
     </row>
-    <row r="385" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1"/>
       <c r="C385" s="1"/>
       <c r="F385" s="1"/>
+      <c r="G385" s="2"/>
       <c r="H385" s="3"/>
     </row>
-    <row r="386" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1"/>
       <c r="C386" s="1"/>
       <c r="F386" s="1"/>
+      <c r="G386" s="2"/>
       <c r="H386" s="3"/>
     </row>
-    <row r="387" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1"/>
       <c r="C387" s="1"/>
       <c r="F387" s="1"/>
+      <c r="G387" s="2"/>
       <c r="H387" s="3"/>
     </row>
-    <row r="388" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1"/>
       <c r="C388" s="1"/>
       <c r="F388" s="1"/>
+      <c r="G388" s="2"/>
       <c r="H388" s="3"/>
     </row>
-    <row r="389" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1"/>
       <c r="C389" s="1"/>
       <c r="F389" s="1"/>
+      <c r="G389" s="2"/>
       <c r="H389" s="3"/>
     </row>
-    <row r="390" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1"/>
       <c r="C390" s="1"/>
       <c r="F390" s="1"/>
+      <c r="G390" s="2"/>
       <c r="H390" s="3"/>
     </row>
-    <row r="391" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1"/>
       <c r="C391" s="1"/>
       <c r="F391" s="1"/>
+      <c r="G391" s="2"/>
       <c r="H391" s="3"/>
     </row>
-    <row r="392" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1"/>
       <c r="C392" s="1"/>
       <c r="F392" s="1"/>
+      <c r="G392" s="2"/>
       <c r="H392" s="3"/>
     </row>
-    <row r="393" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1"/>
       <c r="C393" s="1"/>
       <c r="F393" s="1"/>
+      <c r="G393" s="2"/>
       <c r="H393" s="3"/>
     </row>
-    <row r="394" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1"/>
       <c r="C394" s="1"/>
       <c r="F394" s="1"/>
+      <c r="G394" s="2"/>
       <c r="H394" s="3"/>
     </row>
-    <row r="395" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1"/>
       <c r="C395" s="1"/>
       <c r="F395" s="1"/>
+      <c r="G395" s="2"/>
       <c r="H395" s="3"/>
     </row>
-    <row r="396" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1"/>
       <c r="C396" s="1"/>
       <c r="F396" s="1"/>
+      <c r="G396" s="2"/>
       <c r="H396" s="3"/>
     </row>
-    <row r="397" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1"/>
       <c r="C397" s="1"/>
       <c r="F397" s="1"/>
+      <c r="G397" s="2"/>
       <c r="H397" s="3"/>
     </row>
-    <row r="398" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1"/>
       <c r="C398" s="1"/>
       <c r="F398" s="1"/>
+      <c r="G398" s="2"/>
       <c r="H398" s="3"/>
     </row>
-    <row r="399" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1"/>
       <c r="C399" s="1"/>
       <c r="F399" s="1"/>
+      <c r="G399" s="2"/>
       <c r="H399" s="3"/>
     </row>
-    <row r="400" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1"/>
       <c r="C400" s="1"/>
       <c r="F400" s="1"/>
+      <c r="G400" s="2"/>
       <c r="H400" s="3"/>
     </row>
-    <row r="401" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1"/>
       <c r="C401" s="1"/>
       <c r="F401" s="1"/>
+      <c r="G401" s="2"/>
       <c r="H401" s="3"/>
     </row>
-    <row r="402" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1"/>
       <c r="C402" s="1"/>
       <c r="F402" s="1"/>
+      <c r="G402" s="2"/>
       <c r="H402" s="3"/>
     </row>
-    <row r="403" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1"/>
       <c r="C403" s="1"/>
       <c r="F403" s="1"/>
+      <c r="G403" s="2"/>
       <c r="H403" s="3"/>
     </row>
-    <row r="404" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1"/>
       <c r="C404" s="1"/>
       <c r="F404" s="1"/>
+      <c r="G404" s="2"/>
       <c r="H404" s="3"/>
     </row>
-    <row r="405" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1"/>
       <c r="C405" s="1"/>
       <c r="F405" s="1"/>
+      <c r="G405" s="2"/>
       <c r="H405" s="3"/>
     </row>
-    <row r="406" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1"/>
       <c r="C406" s="1"/>
       <c r="F406" s="1"/>
+      <c r="G406" s="2"/>
       <c r="H406" s="3"/>
     </row>
-    <row r="407" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1"/>
       <c r="C407" s="1"/>
       <c r="F407" s="1"/>
+      <c r="G407" s="2"/>
       <c r="H407" s="3"/>
     </row>
-    <row r="408" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1"/>
       <c r="C408" s="1"/>
       <c r="F408" s="1"/>
+      <c r="G408" s="2"/>
       <c r="H408" s="3"/>
     </row>
-    <row r="409" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1"/>
       <c r="C409" s="1"/>
       <c r="F409" s="1"/>
+      <c r="G409" s="2"/>
       <c r="H409" s="3"/>
     </row>
-    <row r="410" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1"/>
       <c r="C410" s="1"/>
       <c r="F410" s="1"/>
+      <c r="G410" s="2"/>
       <c r="H410" s="3"/>
     </row>
-    <row r="411" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1"/>
       <c r="C411" s="1"/>
       <c r="F411" s="1"/>
+      <c r="G411" s="2"/>
       <c r="H411" s="3"/>
     </row>
-    <row r="412" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1"/>
       <c r="C412" s="1"/>
       <c r="F412" s="1"/>
+      <c r="G412" s="2"/>
       <c r="H412" s="3"/>
     </row>
-    <row r="413" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1"/>
       <c r="C413" s="1"/>
       <c r="F413" s="1"/>
+      <c r="G413" s="2"/>
       <c r="H413" s="3"/>
     </row>
-    <row r="414" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1"/>
       <c r="C414" s="1"/>
       <c r="F414" s="1"/>
+      <c r="G414" s="2"/>
       <c r="H414" s="3"/>
     </row>
-    <row r="415" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1"/>
       <c r="C415" s="1"/>
       <c r="F415" s="1"/>
+      <c r="G415" s="2"/>
       <c r="H415" s="3"/>
     </row>
-    <row r="416" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1"/>
       <c r="C416" s="1"/>
       <c r="F416" s="1"/>
+      <c r="G416" s="2"/>
       <c r="H416" s="3"/>
     </row>
-    <row r="417" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1"/>
       <c r="C417" s="1"/>
       <c r="F417" s="1"/>
+      <c r="G417" s="2"/>
       <c r="H417" s="3"/>
     </row>
-    <row r="418" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1"/>
       <c r="C418" s="1"/>
       <c r="F418" s="1"/>
+      <c r="G418" s="2"/>
       <c r="H418" s="3"/>
     </row>
-    <row r="419" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1"/>
       <c r="C419" s="1"/>
       <c r="F419" s="1"/>
+      <c r="G419" s="2"/>
       <c r="H419" s="3"/>
     </row>
-    <row r="420" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1"/>
       <c r="C420" s="1"/>
       <c r="F420" s="1"/>
+      <c r="G420" s="2"/>
       <c r="H420" s="3"/>
     </row>
-    <row r="421" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1"/>
       <c r="C421" s="1"/>
       <c r="F421" s="1"/>
+      <c r="G421" s="2"/>
       <c r="H421" s="3"/>
     </row>
-    <row r="422" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1"/>
       <c r="C422" s="1"/>
       <c r="F422" s="1"/>
+      <c r="G422" s="2"/>
       <c r="H422" s="3"/>
     </row>
-    <row r="423" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1"/>
       <c r="C423" s="1"/>
       <c r="F423" s="1"/>
+      <c r="G423" s="2"/>
       <c r="H423" s="3"/>
     </row>
-    <row r="424" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1"/>
       <c r="C424" s="1"/>
       <c r="F424" s="1"/>
+      <c r="G424" s="2"/>
       <c r="H424" s="3"/>
     </row>
-    <row r="425" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1"/>
       <c r="C425" s="1"/>
       <c r="F425" s="1"/>
+      <c r="G425" s="2"/>
       <c r="H425" s="3"/>
     </row>
-    <row r="426" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1"/>
       <c r="C426" s="1"/>
       <c r="F426" s="1"/>
+      <c r="G426" s="2"/>
       <c r="H426" s="3"/>
     </row>
-    <row r="427" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1"/>
       <c r="C427" s="1"/>
       <c r="F427" s="1"/>
+      <c r="G427" s="2"/>
       <c r="H427" s="3"/>
     </row>
-    <row r="428" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1"/>
       <c r="C428" s="1"/>
       <c r="F428" s="1"/>
+      <c r="G428" s="2"/>
       <c r="H428" s="3"/>
     </row>
-    <row r="429" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1"/>
       <c r="C429" s="1"/>
       <c r="F429" s="1"/>
+      <c r="G429" s="2"/>
       <c r="H429" s="3"/>
     </row>
-    <row r="430" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1"/>
       <c r="C430" s="1"/>
       <c r="F430" s="1"/>
+      <c r="G430" s="2"/>
       <c r="H430" s="3"/>
     </row>
-    <row r="431" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1"/>
       <c r="C431" s="1"/>
       <c r="F431" s="1"/>
+      <c r="G431" s="2"/>
       <c r="H431" s="3"/>
     </row>
-    <row r="432" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1"/>
       <c r="C432" s="1"/>
       <c r="F432" s="1"/>
+      <c r="G432" s="2"/>
       <c r="H432" s="3"/>
     </row>
-    <row r="433" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1"/>
       <c r="C433" s="1"/>
       <c r="F433" s="1"/>
+      <c r="G433" s="2"/>
       <c r="H433" s="3"/>
     </row>
-    <row r="434" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1"/>
       <c r="C434" s="1"/>
       <c r="F434" s="1"/>
+      <c r="G434" s="2"/>
       <c r="H434" s="3"/>
     </row>
-    <row r="435" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1"/>
       <c r="C435" s="1"/>
       <c r="F435" s="1"/>
+      <c r="G435" s="2"/>
       <c r="H435" s="3"/>
     </row>
-    <row r="436" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1"/>
       <c r="C436" s="1"/>
       <c r="F436" s="1"/>
+      <c r="G436" s="2"/>
       <c r="H436" s="3"/>
     </row>
-    <row r="437" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1"/>
       <c r="C437" s="1"/>
       <c r="F437" s="1"/>
+      <c r="G437" s="2"/>
       <c r="H437" s="3"/>
     </row>
-    <row r="438" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1"/>
       <c r="C438" s="1"/>
       <c r="F438" s="1"/>
+      <c r="G438" s="2"/>
       <c r="H438" s="3"/>
     </row>
-    <row r="439" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1"/>
       <c r="C439" s="1"/>
       <c r="F439" s="1"/>
+      <c r="G439" s="2"/>
       <c r="H439" s="3"/>
     </row>
-    <row r="440" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1"/>
       <c r="C440" s="1"/>
       <c r="F440" s="1"/>
+      <c r="G440" s="2"/>
       <c r="H440" s="3"/>
     </row>
-    <row r="441" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1"/>
       <c r="C441" s="1"/>
       <c r="F441" s="1"/>
+      <c r="G441" s="2"/>
       <c r="H441" s="3"/>
     </row>
-    <row r="442" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1"/>
       <c r="C442" s="1"/>
       <c r="F442" s="1"/>
+      <c r="G442" s="2"/>
       <c r="H442" s="3"/>
     </row>
-    <row r="443" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1"/>
       <c r="C443" s="1"/>
       <c r="F443" s="1"/>
+      <c r="G443" s="2"/>
       <c r="H443" s="3"/>
     </row>
-    <row r="444" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1"/>
       <c r="C444" s="1"/>
       <c r="F444" s="1"/>
+      <c r="G444" s="2"/>
       <c r="H444" s="3"/>
     </row>
-    <row r="445" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1"/>
       <c r="C445" s="1"/>
       <c r="F445" s="1"/>
+      <c r="G445" s="2"/>
       <c r="H445" s="3"/>
     </row>
-    <row r="446" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1"/>
       <c r="C446" s="1"/>
       <c r="F446" s="1"/>
+      <c r="G446" s="2"/>
       <c r="H446" s="3"/>
     </row>
-    <row r="447" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1"/>
       <c r="C447" s="1"/>
       <c r="F447" s="1"/>
+      <c r="G447" s="2"/>
       <c r="H447" s="3"/>
     </row>
-    <row r="448" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1"/>
       <c r="C448" s="1"/>
       <c r="F448" s="1"/>
+      <c r="G448" s="2"/>
       <c r="H448" s="3"/>
     </row>
-    <row r="449" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1"/>
       <c r="C449" s="1"/>
       <c r="F449" s="1"/>
+      <c r="G449" s="2"/>
       <c r="H449" s="3"/>
     </row>
-    <row r="450" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1"/>
       <c r="C450" s="1"/>
       <c r="F450" s="1"/>
+      <c r="G450" s="2"/>
       <c r="H450" s="3"/>
     </row>
-    <row r="451" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1"/>
       <c r="C451" s="1"/>
       <c r="F451" s="1"/>
+      <c r="G451" s="2"/>
       <c r="H451" s="3"/>
     </row>
-    <row r="452" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1"/>
       <c r="C452" s="1"/>
       <c r="F452" s="1"/>
+      <c r="G452" s="2"/>
       <c r="H452" s="3"/>
     </row>
-    <row r="453" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1"/>
       <c r="C453" s="1"/>
       <c r="F453" s="1"/>
+      <c r="G453" s="2"/>
       <c r="H453" s="3"/>
     </row>
-    <row r="454" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1"/>
       <c r="C454" s="1"/>
       <c r="F454" s="1"/>
+      <c r="G454" s="2"/>
       <c r="H454" s="3"/>
     </row>
-    <row r="455" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1"/>
       <c r="C455" s="1"/>
       <c r="F455" s="1"/>
+      <c r="G455" s="2"/>
       <c r="H455" s="3"/>
     </row>
-    <row r="456" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1"/>
       <c r="C456" s="1"/>
       <c r="F456" s="1"/>
+      <c r="G456" s="2"/>
       <c r="H456" s="3"/>
     </row>
-    <row r="457" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1"/>
       <c r="C457" s="1"/>
       <c r="F457" s="1"/>
+      <c r="G457" s="2"/>
       <c r="H457" s="3"/>
     </row>
-    <row r="458" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1"/>
       <c r="C458" s="1"/>
       <c r="F458" s="1"/>
+      <c r="G458" s="2"/>
       <c r="H458" s="3"/>
     </row>
-    <row r="459" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1"/>
       <c r="C459" s="1"/>
       <c r="F459" s="1"/>
+      <c r="G459" s="2"/>
       <c r="H459" s="3"/>
     </row>
-    <row r="460" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1"/>
       <c r="C460" s="1"/>
       <c r="F460" s="1"/>
+      <c r="G460" s="2"/>
       <c r="H460" s="3"/>
     </row>
-    <row r="461" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1"/>
       <c r="C461" s="1"/>
       <c r="F461" s="1"/>
+      <c r="G461" s="2"/>
       <c r="H461" s="3"/>
     </row>
-    <row r="462" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1"/>
       <c r="C462" s="1"/>
       <c r="F462" s="1"/>
+      <c r="G462" s="2"/>
       <c r="H462" s="3"/>
     </row>
-    <row r="463" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1"/>
       <c r="C463" s="1"/>
       <c r="F463" s="1"/>
+      <c r="G463" s="2"/>
       <c r="H463" s="3"/>
     </row>
-    <row r="464" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1"/>
       <c r="C464" s="1"/>
       <c r="F464" s="1"/>
+      <c r="G464" s="2"/>
       <c r="H464" s="3"/>
     </row>
-    <row r="465" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1"/>
       <c r="C465" s="1"/>
       <c r="F465" s="1"/>
+      <c r="G465" s="2"/>
       <c r="H465" s="3"/>
     </row>
-    <row r="466" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1"/>
       <c r="C466" s="1"/>
       <c r="F466" s="1"/>
+      <c r="G466" s="2"/>
       <c r="H466" s="3"/>
     </row>
-    <row r="467" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1"/>
       <c r="C467" s="1"/>
       <c r="F467" s="1"/>
+      <c r="G467" s="2"/>
       <c r="H467" s="3"/>
     </row>
-    <row r="468" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1"/>
       <c r="C468" s="1"/>
       <c r="F468" s="1"/>
+      <c r="G468" s="2"/>
       <c r="H468" s="3"/>
     </row>
-    <row r="469" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1"/>
       <c r="C469" s="1"/>
       <c r="F469" s="1"/>
+      <c r="G469" s="2"/>
       <c r="H469" s="3"/>
     </row>
-    <row r="470" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1"/>
       <c r="C470" s="1"/>
       <c r="F470" s="1"/>
+      <c r="G470" s="2"/>
       <c r="H470" s="3"/>
     </row>
-    <row r="471" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1"/>
       <c r="C471" s="1"/>
       <c r="F471" s="1"/>
+      <c r="G471" s="2"/>
       <c r="H471" s="3"/>
     </row>
-    <row r="472" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1"/>
       <c r="C472" s="1"/>
       <c r="F472" s="1"/>
+      <c r="G472" s="2"/>
       <c r="H472" s="3"/>
     </row>
-    <row r="473" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1"/>
       <c r="C473" s="1"/>
       <c r="F473" s="1"/>
+      <c r="G473" s="2"/>
       <c r="H473" s="3"/>
     </row>
-    <row r="474" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1"/>
       <c r="C474" s="1"/>
       <c r="F474" s="1"/>
+      <c r="G474" s="2"/>
       <c r="H474" s="3"/>
     </row>
-    <row r="475" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1"/>
       <c r="C475" s="1"/>
       <c r="F475" s="1"/>
+      <c r="G475" s="2"/>
       <c r="H475" s="3"/>
     </row>
-    <row r="476" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1"/>
       <c r="C476" s="1"/>
       <c r="F476" s="1"/>
+      <c r="G476" s="2"/>
       <c r="H476" s="3"/>
     </row>
-    <row r="477" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1"/>
       <c r="C477" s="1"/>
       <c r="F477" s="1"/>
+      <c r="G477" s="2"/>
       <c r="H477" s="3"/>
     </row>
-    <row r="478" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1"/>
       <c r="C478" s="1"/>
       <c r="F478" s="1"/>
+      <c r="G478" s="2"/>
       <c r="H478" s="3"/>
     </row>
-    <row r="479" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1"/>
       <c r="C479" s="1"/>
       <c r="F479" s="1"/>
+      <c r="G479" s="2"/>
       <c r="H479" s="3"/>
     </row>
-    <row r="480" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1"/>
       <c r="C480" s="1"/>
       <c r="F480" s="1"/>
+      <c r="G480" s="2"/>
       <c r="H480" s="3"/>
     </row>
-    <row r="481" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1"/>
       <c r="C481" s="1"/>
       <c r="F481" s="1"/>
+      <c r="G481" s="2"/>
       <c r="H481" s="3"/>
     </row>
-    <row r="482" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1"/>
       <c r="C482" s="1"/>
       <c r="F482" s="1"/>
+      <c r="G482" s="2"/>
       <c r="H482" s="3"/>
     </row>
-    <row r="483" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1"/>
       <c r="C483" s="1"/>
       <c r="F483" s="1"/>
+      <c r="G483" s="2"/>
       <c r="H483" s="3"/>
     </row>
-    <row r="484" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1"/>
       <c r="C484" s="1"/>
       <c r="F484" s="1"/>
+      <c r="G484" s="2"/>
       <c r="H484" s="3"/>
     </row>
-    <row r="485" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1"/>
       <c r="C485" s="1"/>
       <c r="F485" s="1"/>
+      <c r="G485" s="2"/>
       <c r="H485" s="3"/>
     </row>
-    <row r="486" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1"/>
       <c r="C486" s="1"/>
       <c r="F486" s="1"/>
+      <c r="G486" s="2"/>
       <c r="H486" s="3"/>
     </row>
-    <row r="487" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1"/>
       <c r="C487" s="1"/>
       <c r="F487" s="1"/>
+      <c r="G487" s="2"/>
       <c r="H487" s="3"/>
     </row>
-    <row r="488" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1"/>
       <c r="C488" s="1"/>
       <c r="F488" s="1"/>
+      <c r="G488" s="2"/>
       <c r="H488" s="3"/>
     </row>
-    <row r="489" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1"/>
       <c r="C489" s="1"/>
       <c r="F489" s="1"/>
+      <c r="G489" s="2"/>
       <c r="H489" s="3"/>
     </row>
-    <row r="490" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1"/>
       <c r="C490" s="1"/>
       <c r="F490" s="1"/>
+      <c r="G490" s="2"/>
       <c r="H490" s="3"/>
     </row>
-    <row r="491" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1"/>
       <c r="C491" s="1"/>
       <c r="F491" s="1"/>
+      <c r="G491" s="2"/>
       <c r="H491" s="3"/>
     </row>
-    <row r="492" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1"/>
       <c r="C492" s="1"/>
       <c r="F492" s="1"/>
+      <c r="G492" s="2"/>
       <c r="H492" s="3"/>
     </row>
-    <row r="493" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1"/>
       <c r="C493" s="1"/>
       <c r="F493" s="1"/>
+      <c r="G493" s="2"/>
       <c r="H493" s="3"/>
     </row>
-    <row r="494" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1"/>
       <c r="C494" s="1"/>
       <c r="F494" s="1"/>
+      <c r="G494" s="2"/>
       <c r="H494" s="3"/>
     </row>
-    <row r="495" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1"/>
       <c r="C495" s="1"/>
       <c r="F495" s="1"/>
+      <c r="G495" s="2"/>
       <c r="H495" s="3"/>
     </row>
-    <row r="496" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1"/>
       <c r="C496" s="1"/>
       <c r="F496" s="1"/>
+      <c r="G496" s="2"/>
       <c r="H496" s="3"/>
     </row>
-    <row r="497" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1"/>
       <c r="C497" s="1"/>
       <c r="F497" s="1"/>
+      <c r="G497" s="2"/>
       <c r="H497" s="3"/>
     </row>
-    <row r="498" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1"/>
       <c r="C498" s="1"/>
       <c r="F498" s="1"/>
+      <c r="G498" s="2"/>
       <c r="H498" s="3"/>
     </row>
-    <row r="499" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1"/>
       <c r="C499" s="1"/>
       <c r="F499" s="1"/>
+      <c r="G499" s="2"/>
       <c r="H499" s="3"/>
     </row>
-    <row r="500" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1"/>
       <c r="C500" s="1"/>
       <c r="F500" s="1"/>
+      <c r="G500" s="2"/>
       <c r="H500" s="3"/>
     </row>
-    <row r="501" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1"/>
       <c r="C501" s="1"/>
       <c r="F501" s="1"/>
+      <c r="G501" s="2"/>
       <c r="H501" s="3"/>
     </row>
-    <row r="502" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1"/>
       <c r="C502" s="1"/>
       <c r="F502" s="1"/>
+      <c r="G502" s="2"/>
       <c r="H502" s="3"/>
     </row>
-    <row r="503" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1"/>
       <c r="C503" s="1"/>
       <c r="F503" s="1"/>
+      <c r="G503" s="2"/>
       <c r="H503" s="3"/>
     </row>
-    <row r="504" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1"/>
       <c r="C504" s="1"/>
       <c r="F504" s="1"/>
+      <c r="G504" s="2"/>
       <c r="H504" s="3"/>
     </row>
-    <row r="505" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1"/>
       <c r="C505" s="1"/>
       <c r="F505" s="1"/>
+      <c r="G505" s="2"/>
       <c r="H505" s="3"/>
     </row>
-    <row r="506" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1"/>
       <c r="C506" s="1"/>
       <c r="F506" s="1"/>
+      <c r="G506" s="2"/>
       <c r="H506" s="3"/>
     </row>
-    <row r="507" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1"/>
       <c r="C507" s="1"/>
       <c r="F507" s="1"/>
+      <c r="G507" s="2"/>
       <c r="H507" s="3"/>
     </row>
-    <row r="508" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1"/>
       <c r="C508" s="1"/>
       <c r="F508" s="1"/>
+      <c r="G508" s="2"/>
       <c r="H508" s="3"/>
     </row>
-    <row r="509" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1"/>
       <c r="C509" s="1"/>
       <c r="F509" s="1"/>
+      <c r="G509" s="2"/>
       <c r="H509" s="3"/>
     </row>
-    <row r="510" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1"/>
       <c r="C510" s="1"/>
       <c r="F510" s="1"/>
+      <c r="G510" s="2"/>
       <c r="H510" s="3"/>
     </row>
-    <row r="511" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1"/>
       <c r="C511" s="1"/>
       <c r="F511" s="1"/>
+      <c r="G511" s="2"/>
       <c r="H511" s="3"/>
     </row>
-    <row r="512" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1"/>
       <c r="C512" s="1"/>
       <c r="F512" s="1"/>
+      <c r="G512" s="2"/>
       <c r="H512" s="3"/>
     </row>
-    <row r="513" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1"/>
       <c r="C513" s="1"/>
       <c r="F513" s="1"/>
+      <c r="G513" s="2"/>
       <c r="H513" s="3"/>
     </row>
-    <row r="514" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1"/>
       <c r="C514" s="1"/>
       <c r="F514" s="1"/>
+      <c r="G514" s="2"/>
       <c r="H514" s="3"/>
     </row>
-    <row r="515" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1"/>
       <c r="C515" s="1"/>
       <c r="F515" s="1"/>
+      <c r="G515" s="2"/>
       <c r="H515" s="3"/>
     </row>
-    <row r="516" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1"/>
       <c r="C516" s="1"/>
       <c r="F516" s="1"/>
+      <c r="G516" s="2"/>
       <c r="H516" s="3"/>
     </row>
-    <row r="517" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1"/>
       <c r="C517" s="1"/>
       <c r="F517" s="1"/>
+      <c r="G517" s="2"/>
       <c r="H517" s="3"/>
     </row>
-    <row r="518" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1"/>
       <c r="C518" s="1"/>
       <c r="F518" s="1"/>
+      <c r="G518" s="2"/>
       <c r="H518" s="3"/>
     </row>
-    <row r="519" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1"/>
       <c r="C519" s="1"/>
       <c r="F519" s="1"/>
+      <c r="G519" s="2"/>
       <c r="H519" s="3"/>
     </row>
-    <row r="520" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1"/>
       <c r="C520" s="1"/>
       <c r="F520" s="1"/>
+      <c r="G520" s="2"/>
       <c r="H520" s="3"/>
     </row>
-    <row r="521" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1"/>
       <c r="C521" s="1"/>
       <c r="F521" s="1"/>
+      <c r="G521" s="2"/>
       <c r="H521" s="3"/>
     </row>
-    <row r="522" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1"/>
       <c r="C522" s="1"/>
       <c r="F522" s="1"/>
+      <c r="G522" s="2"/>
       <c r="H522" s="3"/>
     </row>
-    <row r="523" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1"/>
       <c r="C523" s="1"/>
       <c r="F523" s="1"/>
+      <c r="G523" s="2"/>
       <c r="H523" s="3"/>
     </row>
-    <row r="524" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1"/>
       <c r="C524" s="1"/>
       <c r="F524" s="1"/>
+      <c r="G524" s="2"/>
       <c r="H524" s="3"/>
     </row>
-    <row r="525" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1"/>
       <c r="C525" s="1"/>
       <c r="F525" s="1"/>
+      <c r="G525" s="2"/>
       <c r="H525" s="3"/>
     </row>
-    <row r="526" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1"/>
       <c r="C526" s="1"/>
       <c r="F526" s="1"/>
+      <c r="G526" s="2"/>
       <c r="H526" s="3"/>
     </row>
-    <row r="527" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1"/>
       <c r="C527" s="1"/>
       <c r="F527" s="1"/>
+      <c r="G527" s="2"/>
       <c r="H527" s="3"/>
     </row>
-    <row r="528" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1"/>
       <c r="C528" s="1"/>
       <c r="F528" s="1"/>
+      <c r="G528" s="2"/>
       <c r="H528" s="3"/>
     </row>
-    <row r="529" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1"/>
       <c r="C529" s="1"/>
       <c r="F529" s="1"/>
+      <c r="G529" s="2"/>
       <c r="H529" s="3"/>
     </row>
-    <row r="530" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1"/>
       <c r="C530" s="1"/>
       <c r="F530" s="1"/>
+      <c r="G530" s="2"/>
       <c r="H530" s="3"/>
     </row>
-    <row r="531" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1"/>
       <c r="C531" s="1"/>
       <c r="F531" s="1"/>
+      <c r="G531" s="2"/>
       <c r="H531" s="3"/>
     </row>
-    <row r="532" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1"/>
       <c r="C532" s="1"/>
       <c r="F532" s="1"/>
+      <c r="G532" s="2"/>
       <c r="H532" s="3"/>
     </row>
-    <row r="533" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1"/>
       <c r="C533" s="1"/>
       <c r="F533" s="1"/>
+      <c r="G533" s="2"/>
       <c r="H533" s="3"/>
     </row>
-    <row r="534" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1"/>
       <c r="C534" s="1"/>
       <c r="F534" s="1"/>
+      <c r="G534" s="2"/>
       <c r="H534" s="3"/>
     </row>
-    <row r="535" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1"/>
       <c r="C535" s="1"/>
       <c r="F535" s="1"/>
+      <c r="G535" s="2"/>
       <c r="H535" s="3"/>
     </row>
-    <row r="536" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1"/>
       <c r="C536" s="1"/>
       <c r="F536" s="1"/>
+      <c r="G536" s="2"/>
       <c r="H536" s="3"/>
     </row>
-    <row r="537" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1"/>
       <c r="C537" s="1"/>
       <c r="F537" s="1"/>
+      <c r="G537" s="2"/>
       <c r="H537" s="3"/>
     </row>
-    <row r="538" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1"/>
       <c r="C538" s="1"/>
       <c r="F538" s="1"/>
+      <c r="G538" s="2"/>
       <c r="H538" s="3"/>
     </row>
-    <row r="539" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1"/>
       <c r="C539" s="1"/>
       <c r="F539" s="1"/>
+      <c r="G539" s="2"/>
       <c r="H539" s="3"/>
     </row>
-    <row r="540" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1"/>
       <c r="C540" s="1"/>
       <c r="F540" s="1"/>
+      <c r="G540" s="2"/>
       <c r="H540" s="3"/>
     </row>
-    <row r="541" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1"/>
       <c r="C541" s="1"/>
       <c r="F541" s="1"/>
+      <c r="G541" s="2"/>
       <c r="H541" s="3"/>
     </row>
-    <row r="542" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1"/>
       <c r="C542" s="1"/>
       <c r="F542" s="1"/>
+      <c r="G542" s="2"/>
       <c r="H542" s="3"/>
     </row>
-    <row r="543" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1"/>
       <c r="C543" s="1"/>
       <c r="F543" s="1"/>
+      <c r="G543" s="2"/>
       <c r="H543" s="3"/>
     </row>
-    <row r="544" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1"/>
       <c r="C544" s="1"/>
       <c r="F544" s="1"/>
+      <c r="G544" s="2"/>
       <c r="H544" s="3"/>
     </row>
-    <row r="545" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1"/>
       <c r="C545" s="1"/>
       <c r="F545" s="1"/>
+      <c r="G545" s="2"/>
       <c r="H545" s="3"/>
     </row>
-    <row r="546" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1"/>
       <c r="C546" s="1"/>
       <c r="F546" s="1"/>
+      <c r="G546" s="2"/>
       <c r="H546" s="3"/>
     </row>
-    <row r="547" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1"/>
       <c r="C547" s="1"/>
       <c r="F547" s="1"/>
+      <c r="G547" s="2"/>
       <c r="H547" s="3"/>
     </row>
-    <row r="548" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1"/>
       <c r="C548" s="1"/>
       <c r="F548" s="1"/>
+      <c r="G548" s="2"/>
       <c r="H548" s="3"/>
     </row>
-    <row r="549" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1"/>
       <c r="C549" s="1"/>
       <c r="F549" s="1"/>
+      <c r="G549" s="2"/>
       <c r="H549" s="3"/>
     </row>
-    <row r="550" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1"/>
       <c r="C550" s="1"/>
       <c r="F550" s="1"/>
+      <c r="G550" s="2"/>
       <c r="H550" s="3"/>
     </row>
-    <row r="551" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1"/>
       <c r="C551" s="1"/>
       <c r="F551" s="1"/>
+      <c r="G551" s="2"/>
       <c r="H551" s="3"/>
     </row>
-    <row r="552" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1"/>
       <c r="C552" s="1"/>
       <c r="F552" s="1"/>
+      <c r="G552" s="2"/>
       <c r="H552" s="3"/>
     </row>
-    <row r="553" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1"/>
       <c r="C553" s="1"/>
       <c r="F553" s="1"/>
+      <c r="G553" s="2"/>
       <c r="H553" s="3"/>
     </row>
-    <row r="554" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1"/>
       <c r="C554" s="1"/>
       <c r="F554" s="1"/>
+      <c r="G554" s="2"/>
       <c r="H554" s="3"/>
     </row>
-    <row r="555" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1"/>
       <c r="C555" s="1"/>
       <c r="F555" s="1"/>
+      <c r="G555" s="2"/>
       <c r="H555" s="3"/>
     </row>
-    <row r="556" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1"/>
       <c r="C556" s="1"/>
       <c r="F556" s="1"/>
+      <c r="G556" s="2"/>
       <c r="H556" s="3"/>
     </row>
-    <row r="557" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1"/>
       <c r="C557" s="1"/>
       <c r="F557" s="1"/>
+      <c r="G557" s="2"/>
       <c r="H557" s="3"/>
     </row>
-    <row r="558" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1"/>
       <c r="C558" s="1"/>
       <c r="F558" s="1"/>
+      <c r="G558" s="2"/>
       <c r="H558" s="3"/>
     </row>
-    <row r="559" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1"/>
       <c r="C559" s="1"/>
       <c r="F559" s="1"/>
+      <c r="G559" s="2"/>
       <c r="H559" s="3"/>
     </row>
-    <row r="560" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1"/>
       <c r="C560" s="1"/>
       <c r="F560" s="1"/>
+      <c r="G560" s="2"/>
       <c r="H560" s="3"/>
     </row>
-    <row r="561" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1"/>
       <c r="C561" s="1"/>
       <c r="F561" s="1"/>
+      <c r="G561" s="2"/>
       <c r="H561" s="3"/>
     </row>
-    <row r="562" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1"/>
       <c r="C562" s="1"/>
       <c r="F562" s="1"/>
+      <c r="G562" s="2"/>
       <c r="H562" s="3"/>
     </row>
-    <row r="563" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1"/>
       <c r="C563" s="1"/>
       <c r="F563" s="1"/>
+      <c r="G563" s="2"/>
       <c r="H563" s="3"/>
     </row>
-    <row r="564" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1"/>
       <c r="C564" s="1"/>
       <c r="F564" s="1"/>
+      <c r="G564" s="2"/>
       <c r="H564" s="3"/>
     </row>
-    <row r="565" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1"/>
       <c r="C565" s="1"/>
       <c r="F565" s="1"/>
+      <c r="G565" s="2"/>
       <c r="H565" s="3"/>
     </row>
-    <row r="566" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1"/>
       <c r="C566" s="1"/>
       <c r="F566" s="1"/>
+      <c r="G566" s="2"/>
       <c r="H566" s="3"/>
     </row>
-    <row r="567" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1"/>
       <c r="C567" s="1"/>
       <c r="F567" s="1"/>
+      <c r="G567" s="2"/>
       <c r="H567" s="3"/>
     </row>
-    <row r="568" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1"/>
       <c r="C568" s="1"/>
       <c r="F568" s="1"/>
+      <c r="G568" s="2"/>
       <c r="H568" s="3"/>
     </row>
-    <row r="569" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1"/>
       <c r="C569" s="1"/>
       <c r="F569" s="1"/>
+      <c r="G569" s="2"/>
       <c r="H569" s="3"/>
     </row>
-    <row r="570" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1"/>
       <c r="C570" s="1"/>
       <c r="F570" s="1"/>
+      <c r="G570" s="2"/>
       <c r="H570" s="3"/>
     </row>
-    <row r="571" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1"/>
       <c r="C571" s="1"/>
       <c r="F571" s="1"/>
+      <c r="G571" s="2"/>
       <c r="H571" s="3"/>
     </row>
-    <row r="572" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1"/>
       <c r="C572" s="1"/>
       <c r="F572" s="1"/>
+      <c r="G572" s="2"/>
       <c r="H572" s="3"/>
     </row>
-    <row r="573" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1"/>
       <c r="C573" s="1"/>
       <c r="F573" s="1"/>
+      <c r="G573" s="2"/>
       <c r="H573" s="3"/>
     </row>
-    <row r="574" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1"/>
       <c r="C574" s="1"/>
       <c r="F574" s="1"/>
+      <c r="G574" s="2"/>
       <c r="H574" s="3"/>
     </row>
-    <row r="575" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1"/>
       <c r="C575" s="1"/>
       <c r="F575" s="1"/>
+      <c r="G575" s="2"/>
       <c r="H575" s="3"/>
     </row>
-    <row r="576" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1"/>
       <c r="C576" s="1"/>
       <c r="F576" s="1"/>
+      <c r="G576" s="2"/>
       <c r="H576" s="3"/>
     </row>
-    <row r="577" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1"/>
       <c r="C577" s="1"/>
       <c r="F577" s="1"/>
+      <c r="G577" s="2"/>
       <c r="H577" s="3"/>
     </row>
-    <row r="578" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1"/>
       <c r="C578" s="1"/>
       <c r="F578" s="1"/>
+      <c r="G578" s="2"/>
       <c r="H578" s="3"/>
     </row>
-    <row r="579" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1"/>
       <c r="C579" s="1"/>
       <c r="F579" s="1"/>
+      <c r="G579" s="2"/>
       <c r="H579" s="3"/>
     </row>
-    <row r="580" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1"/>
       <c r="C580" s="1"/>
       <c r="F580" s="1"/>
+      <c r="G580" s="2"/>
       <c r="H580" s="3"/>
     </row>
-    <row r="581" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1"/>
       <c r="C581" s="1"/>
       <c r="F581" s="1"/>
+      <c r="G581" s="2"/>
       <c r="H581" s="3"/>
     </row>
-    <row r="582" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1"/>
       <c r="C582" s="1"/>
       <c r="F582" s="1"/>
+      <c r="G582" s="2"/>
       <c r="H582" s="3"/>
     </row>
-    <row r="583" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1"/>
       <c r="C583" s="1"/>
       <c r="F583" s="1"/>
+      <c r="G583" s="2"/>
       <c r="H583" s="3"/>
     </row>
-    <row r="584" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1"/>
       <c r="C584" s="1"/>
       <c r="F584" s="1"/>
+      <c r="G584" s="2"/>
       <c r="H584" s="3"/>
     </row>
-    <row r="585" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1"/>
       <c r="C585" s="1"/>
       <c r="F585" s="1"/>
+      <c r="G585" s="2"/>
       <c r="H585" s="3"/>
     </row>
-    <row r="586" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1"/>
       <c r="C586" s="1"/>
       <c r="F586" s="1"/>
+      <c r="G586" s="2"/>
       <c r="H586" s="3"/>
     </row>
-    <row r="587" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1"/>
       <c r="C587" s="1"/>
       <c r="F587" s="1"/>
+      <c r="G587" s="2"/>
       <c r="H587" s="3"/>
     </row>
-    <row r="588" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="1"/>
       <c r="C588" s="1"/>
       <c r="F588" s="1"/>
+      <c r="G588" s="2"/>
       <c r="H588" s="3"/>
     </row>
-    <row r="589" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1"/>
       <c r="C589" s="1"/>
       <c r="F589" s="1"/>
+      <c r="G589" s="2"/>
       <c r="H589" s="3"/>
     </row>
-    <row r="590" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="1"/>
       <c r="C590" s="1"/>
       <c r="F590" s="1"/>
+      <c r="G590" s="2"/>
       <c r="H590" s="3"/>
     </row>
-    <row r="591" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="1"/>
       <c r="C591" s="1"/>
       <c r="F591" s="1"/>
+      <c r="G591" s="2"/>
       <c r="H591" s="3"/>
     </row>
-    <row r="592" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="1"/>
       <c r="C592" s="1"/>
       <c r="F592" s="1"/>
+      <c r="G592" s="2"/>
       <c r="H592" s="3"/>
     </row>
-    <row r="593" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="1"/>
       <c r="C593" s="1"/>
       <c r="F593" s="1"/>
+      <c r="G593" s="2"/>
       <c r="H593" s="3"/>
     </row>
-    <row r="594" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1"/>
       <c r="C594" s="1"/>
       <c r="F594" s="1"/>
+      <c r="G594" s="2"/>
       <c r="H594" s="3"/>
     </row>
-    <row r="595" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1"/>
       <c r="C595" s="1"/>
       <c r="F595" s="1"/>
+      <c r="G595" s="2"/>
       <c r="H595" s="3"/>
     </row>
-    <row r="596" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1"/>
       <c r="C596" s="1"/>
       <c r="F596" s="1"/>
+      <c r="G596" s="2"/>
       <c r="H596" s="3"/>
     </row>
-    <row r="597" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="1"/>
       <c r="C597" s="1"/>
       <c r="F597" s="1"/>
+      <c r="G597" s="2"/>
       <c r="H597" s="3"/>
     </row>
-    <row r="598" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1"/>
       <c r="C598" s="1"/>
       <c r="F598" s="1"/>
+      <c r="G598" s="2"/>
       <c r="H598" s="3"/>
     </row>
-    <row r="599" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1"/>
       <c r="C599" s="1"/>
       <c r="F599" s="1"/>
+      <c r="G599" s="2"/>
       <c r="H599" s="3"/>
     </row>
-    <row r="600" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1"/>
       <c r="C600" s="1"/>
       <c r="F600" s="1"/>
+      <c r="G600" s="2"/>
       <c r="H600" s="3"/>
     </row>
-    <row r="601" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1"/>
       <c r="C601" s="1"/>
       <c r="F601" s="1"/>
+      <c r="G601" s="2"/>
       <c r="H601" s="3"/>
     </row>
-    <row r="602" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1"/>
       <c r="C602" s="1"/>
       <c r="F602" s="1"/>
+      <c r="G602" s="2"/>
       <c r="H602" s="3"/>
     </row>
-    <row r="603" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1"/>
       <c r="C603" s="1"/>
       <c r="F603" s="1"/>
+      <c r="G603" s="2"/>
       <c r="H603" s="3"/>
     </row>
-    <row r="604" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1"/>
       <c r="C604" s="1"/>
       <c r="F604" s="1"/>
+      <c r="G604" s="2"/>
       <c r="H604" s="3"/>
     </row>
-    <row r="605" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="1"/>
       <c r="C605" s="1"/>
       <c r="F605" s="1"/>
+      <c r="G605" s="2"/>
       <c r="H605" s="3"/>
     </row>
-    <row r="606" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1"/>
       <c r="C606" s="1"/>
       <c r="F606" s="1"/>
+      <c r="G606" s="2"/>
       <c r="H606" s="3"/>
     </row>
-    <row r="607" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="1"/>
       <c r="C607" s="1"/>
       <c r="F607" s="1"/>
+      <c r="G607" s="2"/>
       <c r="H607" s="3"/>
     </row>
-    <row r="608" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1"/>
       <c r="C608" s="1"/>
       <c r="F608" s="1"/>
+      <c r="G608" s="2"/>
       <c r="H608" s="3"/>
     </row>
-    <row r="609" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="1"/>
       <c r="C609" s="1"/>
       <c r="F609" s="1"/>
+      <c r="G609" s="2"/>
       <c r="H609" s="3"/>
     </row>
-    <row r="610" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="1"/>
       <c r="C610" s="1"/>
       <c r="F610" s="1"/>
+      <c r="G610" s="2"/>
       <c r="H610" s="3"/>
     </row>
-    <row r="611" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1"/>
       <c r="C611" s="1"/>
       <c r="F611" s="1"/>
+      <c r="G611" s="2"/>
       <c r="H611" s="3"/>
     </row>
-    <row r="612" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="1"/>
       <c r="C612" s="1"/>
       <c r="F612" s="1"/>
+      <c r="G612" s="2"/>
       <c r="H612" s="3"/>
     </row>
-    <row r="613" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1"/>
       <c r="C613" s="1"/>
       <c r="F613" s="1"/>
+      <c r="G613" s="2"/>
       <c r="H613" s="3"/>
     </row>
-    <row r="614" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1"/>
       <c r="C614" s="1"/>
       <c r="F614" s="1"/>
+      <c r="G614" s="2"/>
       <c r="H614" s="3"/>
     </row>
-    <row r="615" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1"/>
       <c r="C615" s="1"/>
       <c r="F615" s="1"/>
+      <c r="G615" s="2"/>
       <c r="H615" s="3"/>
     </row>
-    <row r="616" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1"/>
       <c r="C616" s="1"/>
       <c r="F616" s="1"/>
+      <c r="G616" s="2"/>
       <c r="H616" s="3"/>
     </row>
-    <row r="617" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1"/>
       <c r="C617" s="1"/>
       <c r="F617" s="1"/>
+      <c r="G617" s="2"/>
       <c r="H617" s="3"/>
     </row>
-    <row r="618" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="1"/>
       <c r="C618" s="1"/>
       <c r="F618" s="1"/>
+      <c r="G618" s="2"/>
       <c r="H618" s="3"/>
     </row>
-    <row r="619" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1"/>
       <c r="C619" s="1"/>
       <c r="F619" s="1"/>
+      <c r="G619" s="2"/>
       <c r="H619" s="3"/>
     </row>
-    <row r="620" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1"/>
       <c r="C620" s="1"/>
       <c r="F620" s="1"/>
+      <c r="G620" s="2"/>
       <c r="H620" s="3"/>
     </row>
-    <row r="621" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1"/>
       <c r="C621" s="1"/>
       <c r="F621" s="1"/>
+      <c r="G621" s="2"/>
       <c r="H621" s="3"/>
     </row>
-    <row r="622" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1"/>
       <c r="C622" s="1"/>
       <c r="F622" s="1"/>
+      <c r="G622" s="2"/>
       <c r="H622" s="3"/>
     </row>
-    <row r="623" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1"/>
       <c r="C623" s="1"/>
       <c r="F623" s="1"/>
+      <c r="G623" s="2"/>
       <c r="H623" s="3"/>
     </row>
-    <row r="624" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1"/>
       <c r="C624" s="1"/>
       <c r="F624" s="1"/>
+      <c r="G624" s="2"/>
       <c r="H624" s="3"/>
     </row>
-    <row r="625" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1"/>
       <c r="C625" s="1"/>
       <c r="F625" s="1"/>
+      <c r="G625" s="2"/>
       <c r="H625" s="3"/>
     </row>
-    <row r="626" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1"/>
       <c r="C626" s="1"/>
       <c r="F626" s="1"/>
+      <c r="G626" s="2"/>
       <c r="H626" s="3"/>
     </row>
-    <row r="627" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1"/>
       <c r="C627" s="1"/>
       <c r="F627" s="1"/>
+      <c r="G627" s="2"/>
       <c r="H627" s="3"/>
     </row>
-    <row r="628" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1"/>
       <c r="C628" s="1"/>
       <c r="F628" s="1"/>
+      <c r="G628" s="2"/>
       <c r="H628" s="3"/>
     </row>
-    <row r="629" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1"/>
       <c r="C629" s="1"/>
       <c r="F629" s="1"/>
+      <c r="G629" s="2"/>
       <c r="H629" s="3"/>
     </row>
-    <row r="630" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1"/>
       <c r="C630" s="1"/>
       <c r="F630" s="1"/>
+      <c r="G630" s="2"/>
       <c r="H630" s="3"/>
     </row>
-    <row r="631" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1"/>
       <c r="C631" s="1"/>
       <c r="F631" s="1"/>
+      <c r="G631" s="2"/>
       <c r="H631" s="3"/>
     </row>
-    <row r="632" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1"/>
       <c r="C632" s="1"/>
       <c r="F632" s="1"/>
+      <c r="G632" s="2"/>
       <c r="H632" s="3"/>
     </row>
-    <row r="633" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1"/>
       <c r="C633" s="1"/>
       <c r="F633" s="1"/>
+      <c r="G633" s="2"/>
       <c r="H633" s="3"/>
     </row>
-    <row r="634" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1"/>
       <c r="C634" s="1"/>
       <c r="F634" s="1"/>
+      <c r="G634" s="2"/>
       <c r="H634" s="3"/>
     </row>
-    <row r="635" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1"/>
       <c r="C635" s="1"/>
       <c r="F635" s="1"/>
+      <c r="G635" s="2"/>
       <c r="H635" s="3"/>
     </row>
-    <row r="636" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1"/>
       <c r="C636" s="1"/>
       <c r="F636" s="1"/>
+      <c r="G636" s="2"/>
       <c r="H636" s="3"/>
     </row>
-    <row r="637" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1"/>
       <c r="C637" s="1"/>
       <c r="F637" s="1"/>
+      <c r="G637" s="2"/>
       <c r="H637" s="3"/>
     </row>
-    <row r="638" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1"/>
       <c r="C638" s="1"/>
       <c r="F638" s="1"/>
+      <c r="G638" s="2"/>
       <c r="H638" s="3"/>
     </row>
-    <row r="639" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1"/>
       <c r="C639" s="1"/>
       <c r="F639" s="1"/>
+      <c r="G639" s="2"/>
       <c r="H639" s="3"/>
     </row>
-    <row r="640" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1"/>
       <c r="C640" s="1"/>
       <c r="F640" s="1"/>
+      <c r="G640" s="2"/>
       <c r="H640" s="3"/>
     </row>
-    <row r="641" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1"/>
       <c r="C641" s="1"/>
       <c r="F641" s="1"/>
+      <c r="G641" s="2"/>
       <c r="H641" s="3"/>
     </row>
-    <row r="642" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1"/>
       <c r="C642" s="1"/>
       <c r="F642" s="1"/>
+      <c r="G642" s="2"/>
       <c r="H642" s="3"/>
     </row>
-    <row r="643" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1"/>
       <c r="C643" s="1"/>
       <c r="F643" s="1"/>
+      <c r="G643" s="2"/>
       <c r="H643" s="3"/>
     </row>
-    <row r="644" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1"/>
       <c r="C644" s="1"/>
       <c r="F644" s="1"/>
+      <c r="G644" s="2"/>
       <c r="H644" s="3"/>
     </row>
-    <row r="645" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1"/>
       <c r="C645" s="1"/>
       <c r="F645" s="1"/>
+      <c r="G645" s="2"/>
       <c r="H645" s="3"/>
     </row>
-    <row r="646" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1"/>
       <c r="C646" s="1"/>
       <c r="F646" s="1"/>
+      <c r="G646" s="2"/>
       <c r="H646" s="3"/>
     </row>
-    <row r="647" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1"/>
       <c r="C647" s="1"/>
       <c r="F647" s="1"/>
+      <c r="G647" s="2"/>
       <c r="H647" s="3"/>
     </row>
-    <row r="648" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1"/>
       <c r="C648" s="1"/>
       <c r="F648" s="1"/>
+      <c r="G648" s="2"/>
       <c r="H648" s="3"/>
     </row>
-    <row r="649" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1"/>
       <c r="C649" s="1"/>
       <c r="F649" s="1"/>
+      <c r="G649" s="2"/>
       <c r="H649" s="3"/>
     </row>
-    <row r="650" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1"/>
       <c r="C650" s="1"/>
       <c r="F650" s="1"/>
+      <c r="G650" s="2"/>
       <c r="H650" s="3"/>
     </row>
-    <row r="651" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1"/>
       <c r="C651" s="1"/>
       <c r="F651" s="1"/>
+      <c r="G651" s="2"/>
       <c r="H651" s="3"/>
     </row>
-    <row r="652" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1"/>
       <c r="C652" s="1"/>
       <c r="F652" s="1"/>
+      <c r="G652" s="2"/>
       <c r="H652" s="3"/>
     </row>
-    <row r="653" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1"/>
       <c r="C653" s="1"/>
       <c r="F653" s="1"/>
+      <c r="G653" s="2"/>
       <c r="H653" s="3"/>
     </row>
-    <row r="654" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1"/>
       <c r="C654" s="1"/>
       <c r="F654" s="1"/>
+      <c r="G654" s="2"/>
       <c r="H654" s="3"/>
     </row>
-    <row r="655" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1"/>
       <c r="C655" s="1"/>
       <c r="F655" s="1"/>
+      <c r="G655" s="2"/>
       <c r="H655" s="3"/>
     </row>
-    <row r="656" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1"/>
       <c r="C656" s="1"/>
       <c r="F656" s="1"/>
+      <c r="G656" s="2"/>
       <c r="H656" s="3"/>
     </row>
-    <row r="657" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1"/>
       <c r="C657" s="1"/>
       <c r="F657" s="1"/>
+      <c r="G657" s="2"/>
       <c r="H657" s="3"/>
     </row>
-    <row r="658" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="1"/>
       <c r="C658" s="1"/>
       <c r="F658" s="1"/>
+      <c r="G658" s="2"/>
       <c r="H658" s="3"/>
     </row>
-    <row r="659" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1"/>
       <c r="C659" s="1"/>
       <c r="F659" s="1"/>
+      <c r="G659" s="2"/>
       <c r="H659" s="3"/>
     </row>
-    <row r="660" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1"/>
       <c r="C660" s="1"/>
       <c r="F660" s="1"/>
+      <c r="G660" s="2"/>
       <c r="H660" s="3"/>
     </row>
-    <row r="661" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1"/>
       <c r="C661" s="1"/>
       <c r="F661" s="1"/>
+      <c r="G661" s="2"/>
       <c r="H661" s="3"/>
     </row>
-    <row r="662" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1"/>
       <c r="C662" s="1"/>
       <c r="F662" s="1"/>
+      <c r="G662" s="2"/>
       <c r="H662" s="3"/>
     </row>
-    <row r="663" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1"/>
       <c r="C663" s="1"/>
       <c r="F663" s="1"/>
+      <c r="G663" s="2"/>
       <c r="H663" s="3"/>
     </row>
-    <row r="664" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1"/>
       <c r="C664" s="1"/>
       <c r="F664" s="1"/>
+      <c r="G664" s="2"/>
       <c r="H664" s="3"/>
     </row>
-    <row r="665" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="1"/>
       <c r="C665" s="1"/>
       <c r="F665" s="1"/>
+      <c r="G665" s="2"/>
       <c r="H665" s="3"/>
     </row>
-    <row r="666" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="1"/>
       <c r="C666" s="1"/>
       <c r="F666" s="1"/>
+      <c r="G666" s="2"/>
       <c r="H666" s="3"/>
     </row>
-    <row r="667" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="1"/>
       <c r="C667" s="1"/>
       <c r="F667" s="1"/>
+      <c r="G667" s="2"/>
       <c r="H667" s="3"/>
     </row>
-    <row r="668" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="1"/>
       <c r="C668" s="1"/>
       <c r="F668" s="1"/>
+      <c r="G668" s="2"/>
       <c r="H668" s="3"/>
     </row>
-    <row r="669" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="1"/>
       <c r="C669" s="1"/>
       <c r="F669" s="1"/>
+      <c r="G669" s="2"/>
       <c r="H669" s="3"/>
     </row>
-    <row r="670" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="1"/>
       <c r="C670" s="1"/>
       <c r="F670" s="1"/>
+      <c r="G670" s="2"/>
       <c r="H670" s="3"/>
     </row>
-    <row r="671" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="1"/>
       <c r="C671" s="1"/>
       <c r="F671" s="1"/>
+      <c r="G671" s="2"/>
       <c r="H671" s="3"/>
     </row>
-    <row r="672" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="1"/>
       <c r="C672" s="1"/>
       <c r="F672" s="1"/>
+      <c r="G672" s="2"/>
       <c r="H672" s="3"/>
     </row>
-    <row r="673" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="1"/>
       <c r="C673" s="1"/>
       <c r="F673" s="1"/>
+      <c r="G673" s="2"/>
       <c r="H673" s="3"/>
     </row>
-    <row r="674" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="1"/>
       <c r="C674" s="1"/>
       <c r="F674" s="1"/>
+      <c r="G674" s="2"/>
       <c r="H674" s="3"/>
     </row>
-    <row r="675" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="1"/>
       <c r="C675" s="1"/>
       <c r="F675" s="1"/>
+      <c r="G675" s="2"/>
       <c r="H675" s="3"/>
     </row>
-    <row r="676" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="1"/>
       <c r="C676" s="1"/>
       <c r="F676" s="1"/>
+      <c r="G676" s="2"/>
       <c r="H676" s="3"/>
     </row>
-    <row r="677" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="1"/>
       <c r="C677" s="1"/>
       <c r="F677" s="1"/>
+      <c r="G677" s="2"/>
       <c r="H677" s="3"/>
     </row>
-    <row r="678" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="1"/>
       <c r="C678" s="1"/>
       <c r="F678" s="1"/>
+      <c r="G678" s="2"/>
       <c r="H678" s="3"/>
     </row>
-    <row r="679" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="1"/>
       <c r="C679" s="1"/>
       <c r="F679" s="1"/>
+      <c r="G679" s="2"/>
       <c r="H679" s="3"/>
     </row>
-    <row r="680" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="1"/>
       <c r="C680" s="1"/>
       <c r="F680" s="1"/>
+      <c r="G680" s="2"/>
       <c r="H680" s="3"/>
     </row>
-    <row r="681" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="1"/>
       <c r="C681" s="1"/>
       <c r="F681" s="1"/>
+      <c r="G681" s="2"/>
       <c r="H681" s="3"/>
     </row>
-    <row r="682" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="1"/>
       <c r="C682" s="1"/>
       <c r="F682" s="1"/>
+      <c r="G682" s="2"/>
       <c r="H682" s="3"/>
     </row>
-    <row r="683" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="1"/>
       <c r="C683" s="1"/>
       <c r="F683" s="1"/>
+      <c r="G683" s="2"/>
       <c r="H683" s="3"/>
     </row>
-    <row r="684" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="1"/>
       <c r="C684" s="1"/>
       <c r="F684" s="1"/>
+      <c r="G684" s="2"/>
       <c r="H684" s="3"/>
     </row>
-    <row r="685" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="1"/>
       <c r="C685" s="1"/>
       <c r="F685" s="1"/>
+      <c r="G685" s="2"/>
       <c r="H685" s="3"/>
     </row>
-    <row r="686" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1"/>
       <c r="C686" s="1"/>
       <c r="F686" s="1"/>
+      <c r="G686" s="2"/>
       <c r="H686" s="3"/>
     </row>
-    <row r="687" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="1"/>
       <c r="C687" s="1"/>
       <c r="F687" s="1"/>
+      <c r="G687" s="2"/>
       <c r="H687" s="3"/>
     </row>
-    <row r="688" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="1"/>
       <c r="C688" s="1"/>
       <c r="F688" s="1"/>
+      <c r="G688" s="2"/>
       <c r="H688" s="3"/>
     </row>
-    <row r="689" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="1"/>
       <c r="C689" s="1"/>
       <c r="F689" s="1"/>
+      <c r="G689" s="2"/>
       <c r="H689" s="3"/>
     </row>
-    <row r="690" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="1"/>
       <c r="C690" s="1"/>
       <c r="F690" s="1"/>
+      <c r="G690" s="2"/>
       <c r="H690" s="3"/>
     </row>
-    <row r="691" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="1"/>
       <c r="C691" s="1"/>
       <c r="F691" s="1"/>
+      <c r="G691" s="2"/>
       <c r="H691" s="3"/>
     </row>
-    <row r="692" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="1"/>
       <c r="C692" s="1"/>
       <c r="F692" s="1"/>
+      <c r="G692" s="2"/>
       <c r="H692" s="3"/>
     </row>
-    <row r="693" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="1"/>
       <c r="C693" s="1"/>
       <c r="F693" s="1"/>
+      <c r="G693" s="2"/>
       <c r="H693" s="3"/>
     </row>
-    <row r="694" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="1"/>
       <c r="C694" s="1"/>
       <c r="F694" s="1"/>
+      <c r="G694" s="2"/>
       <c r="H694" s="3"/>
     </row>
-    <row r="695" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="1"/>
       <c r="C695" s="1"/>
       <c r="F695" s="1"/>
+      <c r="G695" s="2"/>
       <c r="H695" s="3"/>
     </row>
-    <row r="696" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="1"/>
       <c r="C696" s="1"/>
       <c r="F696" s="1"/>
+      <c r="G696" s="2"/>
       <c r="H696" s="3"/>
     </row>
-    <row r="697" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="1"/>
       <c r="C697" s="1"/>
       <c r="F697" s="1"/>
+      <c r="G697" s="2"/>
       <c r="H697" s="3"/>
     </row>
-    <row r="698" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="1"/>
       <c r="C698" s="1"/>
       <c r="F698" s="1"/>
+      <c r="G698" s="2"/>
       <c r="H698" s="3"/>
     </row>
-    <row r="699" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="1"/>
       <c r="C699" s="1"/>
       <c r="F699" s="1"/>
+      <c r="G699" s="2"/>
       <c r="H699" s="3"/>
     </row>
-    <row r="700" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="1"/>
       <c r="C700" s="1"/>
       <c r="F700" s="1"/>
+      <c r="G700" s="2"/>
       <c r="H700" s="3"/>
     </row>
-    <row r="701" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="1"/>
       <c r="C701" s="1"/>
       <c r="F701" s="1"/>
+      <c r="G701" s="2"/>
       <c r="H701" s="3"/>
     </row>
-    <row r="702" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="1"/>
       <c r="C702" s="1"/>
       <c r="F702" s="1"/>
+      <c r="G702" s="2"/>
       <c r="H702" s="3"/>
     </row>
-    <row r="703" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="1"/>
       <c r="C703" s="1"/>
       <c r="F703" s="1"/>
+      <c r="G703" s="2"/>
       <c r="H703" s="3"/>
     </row>
-    <row r="704" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="1"/>
       <c r="C704" s="1"/>
       <c r="F704" s="1"/>
+      <c r="G704" s="2"/>
       <c r="H704" s="3"/>
     </row>
-    <row r="705" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="1"/>
       <c r="C705" s="1"/>
       <c r="F705" s="1"/>
+      <c r="G705" s="2"/>
       <c r="H705" s="3"/>
     </row>
-    <row r="706" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="1"/>
       <c r="C706" s="1"/>
       <c r="F706" s="1"/>
+      <c r="G706" s="2"/>
       <c r="H706" s="3"/>
     </row>
-    <row r="707" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="1"/>
       <c r="C707" s="1"/>
       <c r="F707" s="1"/>
+      <c r="G707" s="2"/>
       <c r="H707" s="3"/>
     </row>
-    <row r="708" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="1"/>
       <c r="C708" s="1"/>
       <c r="F708" s="1"/>
+      <c r="G708" s="2"/>
       <c r="H708" s="3"/>
     </row>
-    <row r="709" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="1"/>
       <c r="C709" s="1"/>
       <c r="F709" s="1"/>
+      <c r="G709" s="2"/>
       <c r="H709" s="3"/>
     </row>
-    <row r="710" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="1"/>
       <c r="C710" s="1"/>
       <c r="F710" s="1"/>
+      <c r="G710" s="2"/>
       <c r="H710" s="3"/>
     </row>
-    <row r="711" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="1"/>
       <c r="C711" s="1"/>
       <c r="F711" s="1"/>
+      <c r="G711" s="2"/>
       <c r="H711" s="3"/>
     </row>
-    <row r="712" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="1"/>
       <c r="C712" s="1"/>
       <c r="F712" s="1"/>
+      <c r="G712" s="2"/>
       <c r="H712" s="3"/>
     </row>
-    <row r="713" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="1"/>
       <c r="C713" s="1"/>
       <c r="F713" s="1"/>
+      <c r="G713" s="2"/>
       <c r="H713" s="3"/>
     </row>
-    <row r="714" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="1"/>
       <c r="C714" s="1"/>
       <c r="F714" s="1"/>
+      <c r="G714" s="2"/>
       <c r="H714" s="3"/>
     </row>
-    <row r="715" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="1"/>
       <c r="C715" s="1"/>
       <c r="F715" s="1"/>
+      <c r="G715" s="2"/>
       <c r="H715" s="3"/>
     </row>
-    <row r="716" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="1"/>
       <c r="C716" s="1"/>
       <c r="F716" s="1"/>
+      <c r="G716" s="2"/>
       <c r="H716" s="3"/>
     </row>
-    <row r="717" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="1"/>
       <c r="C717" s="1"/>
       <c r="F717" s="1"/>
+      <c r="G717" s="2"/>
       <c r="H717" s="3"/>
     </row>
-    <row r="718" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="1"/>
       <c r="C718" s="1"/>
       <c r="F718" s="1"/>
+      <c r="G718" s="2"/>
       <c r="H718" s="3"/>
     </row>
-    <row r="719" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="1"/>
       <c r="C719" s="1"/>
       <c r="F719" s="1"/>
+      <c r="G719" s="2"/>
       <c r="H719" s="3"/>
     </row>
-    <row r="720" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="1"/>
       <c r="C720" s="1"/>
       <c r="F720" s="1"/>
+      <c r="G720" s="2"/>
       <c r="H720" s="3"/>
     </row>
-    <row r="721" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="1"/>
       <c r="C721" s="1"/>
       <c r="F721" s="1"/>
+      <c r="G721" s="2"/>
       <c r="H721" s="3"/>
     </row>
-    <row r="722" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="1"/>
       <c r="C722" s="1"/>
       <c r="F722" s="1"/>
+      <c r="G722" s="2"/>
       <c r="H722" s="3"/>
     </row>
-    <row r="723" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="1"/>
       <c r="C723" s="1"/>
       <c r="F723" s="1"/>
+      <c r="G723" s="2"/>
       <c r="H723" s="3"/>
     </row>
-    <row r="724" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="1"/>
       <c r="C724" s="1"/>
       <c r="F724" s="1"/>
+      <c r="G724" s="2"/>
       <c r="H724" s="3"/>
     </row>
-    <row r="725" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="1"/>
       <c r="C725" s="1"/>
       <c r="F725" s="1"/>
+      <c r="G725" s="2"/>
       <c r="H725" s="3"/>
     </row>
-    <row r="726" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="1"/>
       <c r="C726" s="1"/>
       <c r="F726" s="1"/>
+      <c r="G726" s="2"/>
       <c r="H726" s="3"/>
     </row>
-    <row r="727" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="1"/>
       <c r="C727" s="1"/>
       <c r="F727" s="1"/>
+      <c r="G727" s="2"/>
       <c r="H727" s="3"/>
     </row>
-    <row r="728" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="1"/>
       <c r="C728" s="1"/>
       <c r="F728" s="1"/>
+      <c r="G728" s="2"/>
       <c r="H728" s="3"/>
     </row>
-    <row r="729" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="1"/>
       <c r="C729" s="1"/>
       <c r="F729" s="1"/>
+      <c r="G729" s="2"/>
       <c r="H729" s="3"/>
     </row>
-    <row r="730" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="1"/>
       <c r="C730" s="1"/>
       <c r="F730" s="1"/>
+      <c r="G730" s="2"/>
       <c r="H730" s="3"/>
     </row>
-    <row r="731" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="1"/>
       <c r="C731" s="1"/>
       <c r="F731" s="1"/>
+      <c r="G731" s="2"/>
       <c r="H731" s="3"/>
     </row>
-    <row r="732" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="1"/>
       <c r="C732" s="1"/>
       <c r="F732" s="1"/>
+      <c r="G732" s="2"/>
       <c r="H732" s="3"/>
     </row>
-    <row r="733" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="1"/>
       <c r="C733" s="1"/>
       <c r="F733" s="1"/>
+      <c r="G733" s="2"/>
       <c r="H733" s="3"/>
     </row>
-    <row r="734" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="1"/>
       <c r="C734" s="1"/>
       <c r="F734" s="1"/>
+      <c r="G734" s="2"/>
       <c r="H734" s="3"/>
     </row>
-    <row r="735" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="1"/>
       <c r="C735" s="1"/>
       <c r="F735" s="1"/>
+      <c r="G735" s="2"/>
       <c r="H735" s="3"/>
     </row>
-    <row r="736" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="1"/>
       <c r="C736" s="1"/>
       <c r="F736" s="1"/>
+      <c r="G736" s="2"/>
       <c r="H736" s="3"/>
     </row>
-    <row r="737" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="1"/>
       <c r="C737" s="1"/>
       <c r="F737" s="1"/>
+      <c r="G737" s="2"/>
       <c r="H737" s="3"/>
     </row>
-    <row r="738" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="1"/>
       <c r="C738" s="1"/>
       <c r="F738" s="1"/>
+      <c r="G738" s="2"/>
       <c r="H738" s="3"/>
     </row>
-    <row r="739" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="1"/>
       <c r="C739" s="1"/>
       <c r="F739" s="1"/>
+      <c r="G739" s="2"/>
       <c r="H739" s="3"/>
     </row>
-    <row r="740" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="1"/>
       <c r="C740" s="1"/>
       <c r="F740" s="1"/>
+      <c r="G740" s="2"/>
       <c r="H740" s="3"/>
     </row>
-    <row r="741" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="1"/>
       <c r="C741" s="1"/>
       <c r="F741" s="1"/>
+      <c r="G741" s="2"/>
       <c r="H741" s="3"/>
     </row>
-    <row r="742" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="1"/>
       <c r="C742" s="1"/>
       <c r="F742" s="1"/>
+      <c r="G742" s="2"/>
       <c r="H742" s="3"/>
     </row>
-    <row r="743" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="1"/>
       <c r="C743" s="1"/>
       <c r="F743" s="1"/>
+      <c r="G743" s="2"/>
       <c r="H743" s="3"/>
     </row>
-    <row r="744" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="1"/>
       <c r="C744" s="1"/>
       <c r="F744" s="1"/>
+      <c r="G744" s="2"/>
       <c r="H744" s="3"/>
     </row>
-    <row r="745" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="1"/>
       <c r="C745" s="1"/>
       <c r="F745" s="1"/>
+      <c r="G745" s="2"/>
       <c r="H745" s="3"/>
     </row>
-    <row r="746" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="1"/>
       <c r="C746" s="1"/>
       <c r="F746" s="1"/>
+      <c r="G746" s="2"/>
       <c r="H746" s="3"/>
     </row>
-    <row r="747" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="1"/>
       <c r="C747" s="1"/>
       <c r="F747" s="1"/>
+      <c r="G747" s="2"/>
       <c r="H747" s="3"/>
     </row>
-    <row r="748" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="1"/>
       <c r="C748" s="1"/>
       <c r="F748" s="1"/>
+      <c r="G748" s="2"/>
       <c r="H748" s="3"/>
     </row>
-    <row r="749" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="1"/>
       <c r="C749" s="1"/>
       <c r="F749" s="1"/>
+      <c r="G749" s="2"/>
       <c r="H749" s="3"/>
     </row>
-    <row r="750" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="1"/>
       <c r="C750" s="1"/>
       <c r="F750" s="1"/>
+      <c r="G750" s="2"/>
       <c r="H750" s="3"/>
     </row>
-    <row r="751" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="1"/>
       <c r="C751" s="1"/>
       <c r="F751" s="1"/>
+      <c r="G751" s="2"/>
       <c r="H751" s="3"/>
     </row>
-    <row r="752" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="1"/>
       <c r="C752" s="1"/>
       <c r="F752" s="1"/>
+      <c r="G752" s="2"/>
       <c r="H752" s="3"/>
     </row>
-    <row r="753" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="1"/>
       <c r="C753" s="1"/>
       <c r="F753" s="1"/>
+      <c r="G753" s="2"/>
       <c r="H753" s="3"/>
     </row>
-    <row r="754" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="1"/>
       <c r="C754" s="1"/>
       <c r="F754" s="1"/>
+      <c r="G754" s="2"/>
       <c r="H754" s="3"/>
     </row>
-    <row r="755" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="1"/>
       <c r="C755" s="1"/>
       <c r="F755" s="1"/>
+      <c r="G755" s="2"/>
       <c r="H755" s="3"/>
     </row>
-    <row r="756" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="1"/>
       <c r="C756" s="1"/>
       <c r="F756" s="1"/>
+      <c r="G756" s="2"/>
       <c r="H756" s="3"/>
     </row>
-    <row r="757" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="1"/>
       <c r="C757" s="1"/>
       <c r="F757" s="1"/>
+      <c r="G757" s="2"/>
       <c r="H757" s="3"/>
     </row>
-    <row r="758" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="1"/>
       <c r="C758" s="1"/>
       <c r="F758" s="1"/>
+      <c r="G758" s="2"/>
       <c r="H758" s="3"/>
     </row>
-    <row r="759" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="1"/>
       <c r="C759" s="1"/>
       <c r="F759" s="1"/>
+      <c r="G759" s="2"/>
       <c r="H759" s="3"/>
     </row>
-    <row r="760" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="1"/>
       <c r="C760" s="1"/>
       <c r="F760" s="1"/>
+      <c r="G760" s="2"/>
       <c r="H760" s="3"/>
     </row>
-    <row r="761" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="1"/>
       <c r="C761" s="1"/>
       <c r="F761" s="1"/>
+      <c r="G761" s="2"/>
       <c r="H761" s="3"/>
     </row>
-    <row r="762" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="1"/>
       <c r="C762" s="1"/>
       <c r="F762" s="1"/>
+      <c r="G762" s="2"/>
       <c r="H762" s="3"/>
     </row>
-    <row r="763" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="1"/>
       <c r="C763" s="1"/>
       <c r="F763" s="1"/>
+      <c r="G763" s="2"/>
       <c r="H763" s="3"/>
     </row>
-    <row r="764" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="1"/>
       <c r="C764" s="1"/>
       <c r="F764" s="1"/>
+      <c r="G764" s="2"/>
       <c r="H764" s="3"/>
     </row>
-    <row r="765" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="1"/>
       <c r="C765" s="1"/>
       <c r="F765" s="1"/>
+      <c r="G765" s="2"/>
       <c r="H765" s="3"/>
     </row>
-    <row r="766" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="1"/>
       <c r="C766" s="1"/>
       <c r="F766" s="1"/>
+      <c r="G766" s="2"/>
       <c r="H766" s="3"/>
     </row>
-    <row r="767" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="1"/>
       <c r="C767" s="1"/>
       <c r="F767" s="1"/>
+      <c r="G767" s="2"/>
       <c r="H767" s="3"/>
     </row>
-    <row r="768" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="1"/>
       <c r="C768" s="1"/>
       <c r="F768" s="1"/>
+      <c r="G768" s="2"/>
       <c r="H768" s="3"/>
     </row>
-    <row r="769" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="1"/>
       <c r="C769" s="1"/>
       <c r="F769" s="1"/>
+      <c r="G769" s="2"/>
       <c r="H769" s="3"/>
     </row>
-    <row r="770" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="1"/>
       <c r="C770" s="1"/>
       <c r="F770" s="1"/>
+      <c r="G770" s="2"/>
       <c r="H770" s="3"/>
     </row>
-    <row r="771" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="1"/>
       <c r="C771" s="1"/>
       <c r="F771" s="1"/>
+      <c r="G771" s="2"/>
       <c r="H771" s="3"/>
     </row>
-    <row r="772" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="1"/>
       <c r="C772" s="1"/>
       <c r="F772" s="1"/>
+      <c r="G772" s="2"/>
       <c r="H772" s="3"/>
     </row>
-    <row r="773" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="1"/>
       <c r="C773" s="1"/>
       <c r="F773" s="1"/>
+      <c r="G773" s="2"/>
       <c r="H773" s="3"/>
     </row>
-    <row r="774" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="1"/>
       <c r="C774" s="1"/>
       <c r="F774" s="1"/>
+      <c r="G774" s="2"/>
       <c r="H774" s="3"/>
     </row>
-    <row r="775" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="1"/>
       <c r="C775" s="1"/>
       <c r="F775" s="1"/>
+      <c r="G775" s="2"/>
       <c r="H775" s="3"/>
     </row>
-    <row r="776" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="1"/>
       <c r="C776" s="1"/>
       <c r="F776" s="1"/>
+      <c r="G776" s="2"/>
       <c r="H776" s="3"/>
     </row>
-    <row r="777" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="1"/>
       <c r="C777" s="1"/>
       <c r="F777" s="1"/>
+      <c r="G777" s="2"/>
       <c r="H777" s="3"/>
     </row>
-    <row r="778" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="1"/>
       <c r="C778" s="1"/>
       <c r="F778" s="1"/>
+      <c r="G778" s="2"/>
       <c r="H778" s="3"/>
     </row>
-    <row r="779" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="1"/>
       <c r="C779" s="1"/>
       <c r="F779" s="1"/>
+      <c r="G779" s="2"/>
       <c r="H779" s="3"/>
     </row>
-    <row r="780" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="1"/>
       <c r="C780" s="1"/>
       <c r="F780" s="1"/>
+      <c r="G780" s="2"/>
       <c r="H780" s="3"/>
     </row>
-    <row r="781" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="1"/>
       <c r="C781" s="1"/>
       <c r="F781" s="1"/>
+      <c r="G781" s="2"/>
       <c r="H781" s="3"/>
     </row>
-    <row r="782" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="1"/>
       <c r="C782" s="1"/>
       <c r="F782" s="1"/>
+      <c r="G782" s="2"/>
       <c r="H782" s="3"/>
     </row>
-    <row r="783" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="1"/>
       <c r="C783" s="1"/>
       <c r="F783" s="1"/>
+      <c r="G783" s="2"/>
       <c r="H783" s="3"/>
     </row>
-    <row r="784" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="1"/>
       <c r="C784" s="1"/>
       <c r="F784" s="1"/>
+      <c r="G784" s="2"/>
       <c r="H784" s="3"/>
     </row>
-    <row r="785" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="1"/>
       <c r="C785" s="1"/>
       <c r="F785" s="1"/>
+      <c r="G785" s="2"/>
       <c r="H785" s="3"/>
     </row>
-    <row r="786" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="1"/>
       <c r="C786" s="1"/>
       <c r="F786" s="1"/>
+      <c r="G786" s="2"/>
       <c r="H786" s="3"/>
     </row>
-    <row r="787" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="1"/>
       <c r="C787" s="1"/>
       <c r="F787" s="1"/>
+      <c r="G787" s="2"/>
       <c r="H787" s="3"/>
     </row>
-    <row r="788" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="1"/>
       <c r="C788" s="1"/>
       <c r="F788" s="1"/>
+      <c r="G788" s="2"/>
       <c r="H788" s="3"/>
     </row>
-    <row r="789" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="1"/>
       <c r="C789" s="1"/>
       <c r="F789" s="1"/>
+      <c r="G789" s="2"/>
       <c r="H789" s="3"/>
     </row>
-    <row r="790" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="1"/>
       <c r="C790" s="1"/>
       <c r="F790" s="1"/>
+      <c r="G790" s="2"/>
       <c r="H790" s="3"/>
     </row>
-    <row r="791" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="1"/>
       <c r="C791" s="1"/>
       <c r="F791" s="1"/>
+      <c r="G791" s="2"/>
       <c r="H791" s="3"/>
     </row>
-    <row r="792" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="1"/>
       <c r="C792" s="1"/>
       <c r="F792" s="1"/>
+      <c r="G792" s="2"/>
       <c r="H792" s="3"/>
     </row>
-    <row r="793" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="1"/>
       <c r="C793" s="1"/>
       <c r="F793" s="1"/>
+      <c r="G793" s="2"/>
       <c r="H793" s="3"/>
     </row>
-    <row r="794" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="1"/>
       <c r="C794" s="1"/>
       <c r="F794" s="1"/>
+      <c r="G794" s="2"/>
       <c r="H794" s="3"/>
     </row>
-    <row r="795" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="1"/>
       <c r="C795" s="1"/>
       <c r="F795" s="1"/>
+      <c r="G795" s="2"/>
       <c r="H795" s="3"/>
     </row>
-    <row r="796" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="1"/>
       <c r="C796" s="1"/>
       <c r="F796" s="1"/>
+      <c r="G796" s="2"/>
       <c r="H796" s="3"/>
     </row>
-    <row r="797" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="1"/>
       <c r="C797" s="1"/>
       <c r="F797" s="1"/>
+      <c r="G797" s="2"/>
       <c r="H797" s="3"/>
     </row>
-    <row r="798" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="1"/>
       <c r="C798" s="1"/>
       <c r="F798" s="1"/>
+      <c r="G798" s="2"/>
       <c r="H798" s="3"/>
     </row>
-    <row r="799" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="1"/>
       <c r="C799" s="1"/>
       <c r="F799" s="1"/>
+      <c r="G799" s="2"/>
       <c r="H799" s="3"/>
     </row>
-    <row r="800" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="1"/>
       <c r="C800" s="1"/>
       <c r="F800" s="1"/>
+      <c r="G800" s="2"/>
       <c r="H800" s="3"/>
     </row>
-    <row r="801" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="1"/>
       <c r="C801" s="1"/>
       <c r="F801" s="1"/>
+      <c r="G801" s="2"/>
       <c r="H801" s="3"/>
     </row>
-    <row r="802" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="1"/>
       <c r="C802" s="1"/>
       <c r="F802" s="1"/>
+      <c r="G802" s="2"/>
       <c r="H802" s="3"/>
     </row>
-    <row r="803" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="1"/>
       <c r="C803" s="1"/>
       <c r="F803" s="1"/>
+      <c r="G803" s="2"/>
       <c r="H803" s="3"/>
     </row>
-    <row r="804" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="1"/>
       <c r="C804" s="1"/>
       <c r="F804" s="1"/>
+      <c r="G804" s="2"/>
       <c r="H804" s="3"/>
     </row>
-    <row r="805" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="1"/>
       <c r="C805" s="1"/>
       <c r="F805" s="1"/>
+      <c r="G805" s="2"/>
       <c r="H805" s="3"/>
     </row>
-    <row r="806" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="1"/>
       <c r="C806" s="1"/>
       <c r="F806" s="1"/>
+      <c r="G806" s="2"/>
       <c r="H806" s="3"/>
     </row>
-    <row r="807" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="1"/>
       <c r="C807" s="1"/>
       <c r="F807" s="1"/>
+      <c r="G807" s="2"/>
       <c r="H807" s="3"/>
     </row>
-    <row r="808" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="1"/>
       <c r="C808" s="1"/>
       <c r="F808" s="1"/>
+      <c r="G808" s="2"/>
       <c r="H808" s="3"/>
     </row>
-    <row r="809" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="1"/>
       <c r="C809" s="1"/>
       <c r="F809" s="1"/>
+      <c r="G809" s="2"/>
       <c r="H809" s="3"/>
     </row>
-    <row r="810" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="1"/>
       <c r="C810" s="1"/>
       <c r="F810" s="1"/>
+      <c r="G810" s="2"/>
       <c r="H810" s="3"/>
     </row>
-    <row r="811" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="1"/>
       <c r="C811" s="1"/>
       <c r="F811" s="1"/>
+      <c r="G811" s="2"/>
       <c r="H811" s="3"/>
     </row>
-    <row r="812" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="1"/>
       <c r="C812" s="1"/>
       <c r="F812" s="1"/>
+      <c r="G812" s="2"/>
       <c r="H812" s="3"/>
     </row>
-    <row r="813" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="1"/>
       <c r="C813" s="1"/>
       <c r="F813" s="1"/>
+      <c r="G813" s="2"/>
       <c r="H813" s="3"/>
     </row>
-    <row r="814" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="1"/>
       <c r="C814" s="1"/>
       <c r="F814" s="1"/>
+      <c r="G814" s="2"/>
       <c r="H814" s="3"/>
     </row>
-    <row r="815" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="1"/>
       <c r="C815" s="1"/>
       <c r="F815" s="1"/>
+      <c r="G815" s="2"/>
       <c r="H815" s="3"/>
     </row>
-    <row r="816" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="1"/>
       <c r="C816" s="1"/>
       <c r="F816" s="1"/>
+      <c r="G816" s="2"/>
       <c r="H816" s="3"/>
     </row>
-    <row r="817" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="1"/>
       <c r="C817" s="1"/>
       <c r="F817" s="1"/>
+      <c r="G817" s="2"/>
       <c r="H817" s="3"/>
     </row>
-    <row r="818" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="1"/>
       <c r="C818" s="1"/>
       <c r="F818" s="1"/>
+      <c r="G818" s="2"/>
       <c r="H818" s="3"/>
     </row>
-    <row r="819" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="1"/>
       <c r="C819" s="1"/>
       <c r="F819" s="1"/>
+      <c r="G819" s="2"/>
       <c r="H819" s="3"/>
     </row>
-    <row r="820" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="1"/>
       <c r="C820" s="1"/>
       <c r="F820" s="1"/>
+      <c r="G820" s="2"/>
       <c r="H820" s="3"/>
     </row>
-    <row r="821" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="1"/>
       <c r="C821" s="1"/>
       <c r="F821" s="1"/>
+      <c r="G821" s="2"/>
       <c r="H821" s="3"/>
     </row>
-    <row r="822" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="1"/>
       <c r="C822" s="1"/>
       <c r="F822" s="1"/>
+      <c r="G822" s="2"/>
       <c r="H822" s="3"/>
     </row>
-    <row r="823" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="1"/>
       <c r="C823" s="1"/>
       <c r="F823" s="1"/>
+      <c r="G823" s="2"/>
       <c r="H823" s="3"/>
     </row>
-    <row r="824" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="1"/>
       <c r="C824" s="1"/>
       <c r="F824" s="1"/>
+      <c r="G824" s="2"/>
       <c r="H824" s="3"/>
     </row>
-    <row r="825" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="1"/>
       <c r="C825" s="1"/>
       <c r="F825" s="1"/>
+      <c r="G825" s="2"/>
       <c r="H825" s="3"/>
     </row>
-    <row r="826" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="1"/>
       <c r="C826" s="1"/>
       <c r="F826" s="1"/>
+      <c r="G826" s="2"/>
       <c r="H826" s="3"/>
     </row>
-    <row r="827" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="1"/>
       <c r="C827" s="1"/>
       <c r="F827" s="1"/>
+      <c r="G827" s="2"/>
       <c r="H827" s="3"/>
     </row>
-    <row r="828" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="1"/>
       <c r="C828" s="1"/>
       <c r="F828" s="1"/>
+      <c r="G828" s="2"/>
       <c r="H828" s="3"/>
     </row>
-    <row r="829" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="1"/>
       <c r="C829" s="1"/>
       <c r="F829" s="1"/>
+      <c r="G829" s="2"/>
       <c r="H829" s="3"/>
     </row>
-    <row r="830" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="1"/>
       <c r="C830" s="1"/>
       <c r="F830" s="1"/>
+      <c r="G830" s="2"/>
       <c r="H830" s="3"/>
     </row>
-    <row r="831" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="1"/>
       <c r="C831" s="1"/>
       <c r="F831" s="1"/>
+      <c r="G831" s="2"/>
       <c r="H831" s="3"/>
     </row>
-    <row r="832" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="1"/>
       <c r="C832" s="1"/>
       <c r="F832" s="1"/>
+      <c r="G832" s="2"/>
       <c r="H832" s="3"/>
     </row>
-    <row r="833" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="1"/>
       <c r="C833" s="1"/>
       <c r="F833" s="1"/>
+      <c r="G833" s="2"/>
       <c r="H833" s="3"/>
     </row>
-    <row r="834" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="1"/>
       <c r="C834" s="1"/>
       <c r="F834" s="1"/>
+      <c r="G834" s="2"/>
       <c r="H834" s="3"/>
     </row>
-    <row r="835" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="1"/>
       <c r="C835" s="1"/>
       <c r="F835" s="1"/>
+      <c r="G835" s="2"/>
       <c r="H835" s="3"/>
     </row>
-    <row r="836" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="1"/>
       <c r="C836" s="1"/>
       <c r="F836" s="1"/>
+      <c r="G836" s="2"/>
       <c r="H836" s="3"/>
     </row>
-    <row r="837" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="1"/>
       <c r="C837" s="1"/>
       <c r="F837" s="1"/>
+      <c r="G837" s="2"/>
       <c r="H837" s="3"/>
     </row>
-    <row r="838" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="1"/>
       <c r="C838" s="1"/>
       <c r="F838" s="1"/>
+      <c r="G838" s="2"/>
       <c r="H838" s="3"/>
     </row>
-    <row r="839" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="1"/>
       <c r="C839" s="1"/>
       <c r="F839" s="1"/>
+      <c r="G839" s="2"/>
       <c r="H839" s="3"/>
     </row>
-    <row r="840" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="1"/>
       <c r="C840" s="1"/>
       <c r="F840" s="1"/>
+      <c r="G840" s="2"/>
       <c r="H840" s="3"/>
     </row>
-    <row r="841" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="1"/>
       <c r="C841" s="1"/>
       <c r="F841" s="1"/>
+      <c r="G841" s="2"/>
       <c r="H841" s="3"/>
     </row>
-    <row r="842" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="1"/>
       <c r="C842" s="1"/>
       <c r="F842" s="1"/>
+      <c r="G842" s="2"/>
       <c r="H842" s="3"/>
     </row>
-    <row r="843" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="1"/>
       <c r="C843" s="1"/>
       <c r="F843" s="1"/>
+      <c r="G843" s="2"/>
       <c r="H843" s="3"/>
     </row>
-    <row r="844" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="1"/>
       <c r="C844" s="1"/>
       <c r="F844" s="1"/>
+      <c r="G844" s="2"/>
       <c r="H844" s="3"/>
     </row>
-    <row r="845" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="1"/>
       <c r="C845" s="1"/>
       <c r="F845" s="1"/>
+      <c r="G845" s="2"/>
       <c r="H845" s="3"/>
     </row>
-    <row r="846" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="1"/>
       <c r="C846" s="1"/>
       <c r="F846" s="1"/>
+      <c r="G846" s="2"/>
       <c r="H846" s="3"/>
     </row>
-    <row r="847" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="1"/>
       <c r="C847" s="1"/>
       <c r="F847" s="1"/>
+      <c r="G847" s="2"/>
       <c r="H847" s="3"/>
     </row>
-    <row r="848" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="1"/>
       <c r="C848" s="1"/>
       <c r="F848" s="1"/>
+      <c r="G848" s="2"/>
       <c r="H848" s="3"/>
     </row>
-    <row r="849" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="1"/>
       <c r="C849" s="1"/>
       <c r="F849" s="1"/>
+      <c r="G849" s="2"/>
       <c r="H849" s="3"/>
     </row>
-    <row r="850" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="1"/>
       <c r="C850" s="1"/>
       <c r="F850" s="1"/>
+      <c r="G850" s="2"/>
       <c r="H850" s="3"/>
     </row>
-    <row r="851" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="1"/>
       <c r="C851" s="1"/>
       <c r="F851" s="1"/>
+      <c r="G851" s="2"/>
       <c r="H851" s="3"/>
     </row>
-    <row r="852" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="1"/>
       <c r="C852" s="1"/>
       <c r="F852" s="1"/>
+      <c r="G852" s="2"/>
       <c r="H852" s="3"/>
     </row>
-    <row r="853" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="1"/>
       <c r="C853" s="1"/>
       <c r="F853" s="1"/>
+      <c r="G853" s="2"/>
       <c r="H853" s="3"/>
     </row>
-    <row r="854" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="1"/>
       <c r="C854" s="1"/>
       <c r="F854" s="1"/>
+      <c r="G854" s="2"/>
       <c r="H854" s="3"/>
     </row>
-    <row r="855" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="1"/>
       <c r="C855" s="1"/>
       <c r="F855" s="1"/>
+      <c r="G855" s="2"/>
       <c r="H855" s="3"/>
     </row>
-    <row r="856" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="1"/>
       <c r="C856" s="1"/>
       <c r="F856" s="1"/>
+      <c r="G856" s="2"/>
       <c r="H856" s="3"/>
     </row>
-    <row r="857" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="1"/>
       <c r="C857" s="1"/>
       <c r="F857" s="1"/>
+      <c r="G857" s="2"/>
       <c r="H857" s="3"/>
     </row>
-    <row r="858" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="1"/>
       <c r="C858" s="1"/>
       <c r="F858" s="1"/>
+      <c r="G858" s="2"/>
       <c r="H858" s="3"/>
     </row>
-    <row r="859" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="1"/>
       <c r="C859" s="1"/>
       <c r="F859" s="1"/>
+      <c r="G859" s="2"/>
       <c r="H859" s="3"/>
     </row>
-    <row r="860" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="1"/>
       <c r="C860" s="1"/>
       <c r="F860" s="1"/>
+      <c r="G860" s="2"/>
       <c r="H860" s="3"/>
     </row>
-    <row r="861" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="1"/>
       <c r="C861" s="1"/>
       <c r="F861" s="1"/>
+      <c r="G861" s="2"/>
       <c r="H861" s="3"/>
     </row>
-    <row r="862" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="1"/>
       <c r="C862" s="1"/>
       <c r="F862" s="1"/>
+      <c r="G862" s="2"/>
       <c r="H862" s="3"/>
     </row>
-    <row r="863" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="1"/>
       <c r="C863" s="1"/>
       <c r="F863" s="1"/>
+      <c r="G863" s="2"/>
       <c r="H863" s="3"/>
     </row>
-    <row r="864" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="1"/>
       <c r="C864" s="1"/>
       <c r="F864" s="1"/>
+      <c r="G864" s="2"/>
       <c r="H864" s="3"/>
     </row>
-    <row r="865" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="1"/>
       <c r="C865" s="1"/>
       <c r="F865" s="1"/>
+      <c r="G865" s="2"/>
       <c r="H865" s="3"/>
     </row>
-    <row r="866" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="1"/>
       <c r="C866" s="1"/>
       <c r="F866" s="1"/>
+      <c r="G866" s="2"/>
       <c r="H866" s="3"/>
     </row>
-    <row r="867" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="1"/>
       <c r="C867" s="1"/>
       <c r="F867" s="1"/>
+      <c r="G867" s="2"/>
       <c r="H867" s="3"/>
     </row>
-    <row r="868" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="1"/>
       <c r="C868" s="1"/>
       <c r="F868" s="1"/>
+      <c r="G868" s="2"/>
       <c r="H868" s="3"/>
     </row>
-    <row r="869" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="1"/>
       <c r="C869" s="1"/>
       <c r="F869" s="1"/>
+      <c r="G869" s="2"/>
       <c r="H869" s="3"/>
     </row>
-    <row r="870" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="1"/>
       <c r="C870" s="1"/>
       <c r="F870" s="1"/>
+      <c r="G870" s="2"/>
       <c r="H870" s="3"/>
     </row>
-    <row r="871" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="1"/>
       <c r="C871" s="1"/>
       <c r="F871" s="1"/>
+      <c r="G871" s="2"/>
       <c r="H871" s="3"/>
     </row>
-    <row r="872" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="1"/>
       <c r="C872" s="1"/>
       <c r="F872" s="1"/>
+      <c r="G872" s="2"/>
       <c r="H872" s="3"/>
     </row>
-    <row r="873" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="1"/>
       <c r="C873" s="1"/>
       <c r="F873" s="1"/>
+      <c r="G873" s="2"/>
       <c r="H873" s="3"/>
     </row>
-    <row r="874" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="1"/>
       <c r="C874" s="1"/>
       <c r="F874" s="1"/>
+      <c r="G874" s="2"/>
       <c r="H874" s="3"/>
     </row>
-    <row r="875" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="1"/>
       <c r="C875" s="1"/>
       <c r="F875" s="1"/>
+      <c r="G875" s="2"/>
       <c r="H875" s="3"/>
     </row>
-    <row r="876" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="1"/>
       <c r="C876" s="1"/>
       <c r="F876" s="1"/>
+      <c r="G876" s="2"/>
       <c r="H876" s="3"/>
     </row>
-    <row r="877" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="1"/>
       <c r="C877" s="1"/>
       <c r="F877" s="1"/>
+      <c r="G877" s="2"/>
       <c r="H877" s="3"/>
     </row>
-    <row r="878" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="1"/>
       <c r="C878" s="1"/>
       <c r="F878" s="1"/>
+      <c r="G878" s="2"/>
       <c r="H878" s="3"/>
     </row>
-    <row r="879" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="1"/>
       <c r="C879" s="1"/>
       <c r="F879" s="1"/>
+      <c r="G879" s="2"/>
       <c r="H879" s="3"/>
     </row>
-    <row r="880" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="1"/>
       <c r="C880" s="1"/>
       <c r="F880" s="1"/>
+      <c r="G880" s="2"/>
       <c r="H880" s="3"/>
     </row>
-    <row r="881" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="1"/>
       <c r="C881" s="1"/>
       <c r="F881" s="1"/>
+      <c r="G881" s="2"/>
       <c r="H881" s="3"/>
     </row>
-    <row r="882" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="1"/>
       <c r="C882" s="1"/>
       <c r="F882" s="1"/>
+      <c r="G882" s="2"/>
       <c r="H882" s="3"/>
     </row>
-    <row r="883" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="1"/>
       <c r="C883" s="1"/>
       <c r="F883" s="1"/>
+      <c r="G883" s="2"/>
       <c r="H883" s="3"/>
     </row>
-    <row r="884" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="1"/>
       <c r="C884" s="1"/>
       <c r="F884" s="1"/>
+      <c r="G884" s="2"/>
       <c r="H884" s="3"/>
     </row>
-    <row r="885" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="1"/>
       <c r="C885" s="1"/>
       <c r="F885" s="1"/>
+      <c r="G885" s="2"/>
       <c r="H885" s="3"/>
     </row>
-    <row r="886" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="1"/>
       <c r="C886" s="1"/>
       <c r="F886" s="1"/>
+      <c r="G886" s="2"/>
       <c r="H886" s="3"/>
     </row>
-    <row r="887" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="1"/>
       <c r="C887" s="1"/>
       <c r="F887" s="1"/>
+      <c r="G887" s="2"/>
       <c r="H887" s="3"/>
     </row>
-    <row r="888" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="1"/>
       <c r="C888" s="1"/>
       <c r="F888" s="1"/>
+      <c r="G888" s="2"/>
       <c r="H888" s="3"/>
     </row>
-    <row r="889" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="1"/>
       <c r="C889" s="1"/>
       <c r="F889" s="1"/>
+      <c r="G889" s="2"/>
       <c r="H889" s="3"/>
     </row>
-    <row r="890" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="1"/>
       <c r="C890" s="1"/>
       <c r="F890" s="1"/>
+      <c r="G890" s="2"/>
       <c r="H890" s="3"/>
     </row>
-    <row r="891" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="1"/>
       <c r="C891" s="1"/>
       <c r="F891" s="1"/>
+      <c r="G891" s="2"/>
       <c r="H891" s="3"/>
     </row>
-    <row r="892" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="1"/>
       <c r="C892" s="1"/>
       <c r="F892" s="1"/>
+      <c r="G892" s="2"/>
       <c r="H892" s="3"/>
     </row>
-    <row r="893" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="1"/>
       <c r="C893" s="1"/>
       <c r="F893" s="1"/>
+      <c r="G893" s="2"/>
       <c r="H893" s="3"/>
     </row>
-    <row r="894" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="1"/>
       <c r="C894" s="1"/>
       <c r="F894" s="1"/>
+      <c r="G894" s="2"/>
       <c r="H894" s="3"/>
     </row>
-    <row r="895" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="1"/>
       <c r="C895" s="1"/>
       <c r="F895" s="1"/>
+      <c r="G895" s="2"/>
       <c r="H895" s="3"/>
     </row>
-    <row r="896" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="1"/>
       <c r="C896" s="1"/>
       <c r="F896" s="1"/>
+      <c r="G896" s="2"/>
       <c r="H896" s="3"/>
     </row>
-    <row r="897" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="1"/>
       <c r="C897" s="1"/>
       <c r="F897" s="1"/>
+      <c r="G897" s="2"/>
       <c r="H897" s="3"/>
     </row>
-    <row r="898" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="1"/>
       <c r="C898" s="1"/>
       <c r="F898" s="1"/>
+      <c r="G898" s="2"/>
       <c r="H898" s="3"/>
     </row>
-    <row r="899" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="1"/>
       <c r="C899" s="1"/>
       <c r="F899" s="1"/>
+      <c r="G899" s="2"/>
       <c r="H899" s="3"/>
     </row>
-    <row r="900" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="1"/>
       <c r="C900" s="1"/>
       <c r="F900" s="1"/>
+      <c r="G900" s="2"/>
       <c r="H900" s="3"/>
     </row>
-    <row r="901" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="1"/>
       <c r="C901" s="1"/>
       <c r="F901" s="1"/>
+      <c r="G901" s="2"/>
       <c r="H901" s="3"/>
     </row>
-    <row r="902" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="1"/>
       <c r="C902" s="1"/>
       <c r="F902" s="1"/>
+      <c r="G902" s="2"/>
       <c r="H902" s="3"/>
     </row>
-    <row r="903" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="1"/>
       <c r="C903" s="1"/>
       <c r="F903" s="1"/>
+      <c r="G903" s="2"/>
       <c r="H903" s="3"/>
     </row>
-    <row r="904" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="1"/>
       <c r="C904" s="1"/>
       <c r="F904" s="1"/>
+      <c r="G904" s="2"/>
       <c r="H904" s="3"/>
     </row>
-    <row r="905" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="1"/>
       <c r="C905" s="1"/>
       <c r="F905" s="1"/>
+      <c r="G905" s="2"/>
       <c r="H905" s="3"/>
     </row>
-    <row r="906" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="1"/>
       <c r="C906" s="1"/>
       <c r="F906" s="1"/>
+      <c r="G906" s="2"/>
       <c r="H906" s="3"/>
     </row>
-    <row r="907" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="1"/>
       <c r="C907" s="1"/>
       <c r="F907" s="1"/>
+      <c r="G907" s="2"/>
       <c r="H907" s="3"/>
     </row>
-    <row r="908" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="1"/>
       <c r="C908" s="1"/>
       <c r="F908" s="1"/>
+      <c r="G908" s="2"/>
       <c r="H908" s="3"/>
     </row>
-    <row r="909" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="1"/>
       <c r="C909" s="1"/>
       <c r="F909" s="1"/>
+      <c r="G909" s="2"/>
       <c r="H909" s="3"/>
     </row>
-    <row r="910" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="1"/>
       <c r="C910" s="1"/>
       <c r="F910" s="1"/>
+      <c r="G910" s="2"/>
       <c r="H910" s="3"/>
     </row>
-    <row r="911" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="1"/>
       <c r="C911" s="1"/>
       <c r="F911" s="1"/>
+      <c r="G911" s="2"/>
       <c r="H911" s="3"/>
     </row>
-    <row r="912" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="1"/>
       <c r="C912" s="1"/>
       <c r="F912" s="1"/>
+      <c r="G912" s="2"/>
       <c r="H912" s="3"/>
     </row>
-    <row r="913" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="1"/>
       <c r="C913" s="1"/>
       <c r="F913" s="1"/>
+      <c r="G913" s="2"/>
       <c r="H913" s="3"/>
     </row>
-    <row r="914" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="1"/>
       <c r="C914" s="1"/>
       <c r="F914" s="1"/>
+      <c r="G914" s="2"/>
       <c r="H914" s="3"/>
     </row>
-    <row r="915" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="1"/>
       <c r="C915" s="1"/>
       <c r="F915" s="1"/>
+      <c r="G915" s="2"/>
       <c r="H915" s="3"/>
     </row>
-    <row r="916" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="1"/>
       <c r="C916" s="1"/>
       <c r="F916" s="1"/>
+      <c r="G916" s="2"/>
       <c r="H916" s="3"/>
     </row>
-    <row r="917" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="1"/>
       <c r="C917" s="1"/>
       <c r="F917" s="1"/>
+      <c r="G917" s="2"/>
       <c r="H917" s="3"/>
     </row>
-    <row r="918" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="1"/>
       <c r="C918" s="1"/>
       <c r="F918" s="1"/>
+      <c r="G918" s="2"/>
       <c r="H918" s="3"/>
     </row>
-    <row r="919" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="1"/>
       <c r="C919" s="1"/>
       <c r="F919" s="1"/>
+      <c r="G919" s="2"/>
       <c r="H919" s="3"/>
     </row>
-    <row r="920" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="1"/>
       <c r="C920" s="1"/>
       <c r="F920" s="1"/>
+      <c r="G920" s="2"/>
       <c r="H920" s="3"/>
     </row>
-    <row r="921" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="1"/>
       <c r="C921" s="1"/>
       <c r="F921" s="1"/>
+      <c r="G921" s="2"/>
       <c r="H921" s="3"/>
     </row>
-    <row r="922" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="1"/>
       <c r="C922" s="1"/>
       <c r="F922" s="1"/>
+      <c r="G922" s="2"/>
       <c r="H922" s="3"/>
     </row>
-    <row r="923" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="1"/>
       <c r="C923" s="1"/>
       <c r="F923" s="1"/>
+      <c r="G923" s="2"/>
       <c r="H923" s="3"/>
     </row>
-    <row r="924" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="1"/>
       <c r="C924" s="1"/>
       <c r="F924" s="1"/>
+      <c r="G924" s="2"/>
       <c r="H924" s="3"/>
     </row>
-    <row r="925" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1"/>
       <c r="C925" s="1"/>
       <c r="F925" s="1"/>
+      <c r="G925" s="2"/>
       <c r="H925" s="3"/>
     </row>
-    <row r="926" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="1"/>
       <c r="C926" s="1"/>
       <c r="F926" s="1"/>
+      <c r="G926" s="2"/>
       <c r="H926" s="3"/>
     </row>
-    <row r="927" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="1"/>
       <c r="C927" s="1"/>
       <c r="F927" s="1"/>
+      <c r="G927" s="2"/>
       <c r="H927" s="3"/>
     </row>
-    <row r="928" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="1"/>
       <c r="C928" s="1"/>
       <c r="F928" s="1"/>
+      <c r="G928" s="2"/>
       <c r="H928" s="3"/>
     </row>
-    <row r="929" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="1"/>
       <c r="C929" s="1"/>
       <c r="F929" s="1"/>
+      <c r="G929" s="2"/>
       <c r="H929" s="3"/>
     </row>
-    <row r="930" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="1"/>
       <c r="C930" s="1"/>
       <c r="F930" s="1"/>
+      <c r="G930" s="2"/>
       <c r="H930" s="3"/>
     </row>
-    <row r="931" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="1"/>
       <c r="C931" s="1"/>
       <c r="F931" s="1"/>
+      <c r="G931" s="2"/>
       <c r="H931" s="3"/>
     </row>
-    <row r="932" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="1"/>
       <c r="C932" s="1"/>
       <c r="F932" s="1"/>
+      <c r="G932" s="2"/>
       <c r="H932" s="3"/>
     </row>
-    <row r="933" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="1"/>
       <c r="C933" s="1"/>
       <c r="F933" s="1"/>
+      <c r="G933" s="2"/>
       <c r="H933" s="3"/>
     </row>
-    <row r="934" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="1"/>
       <c r="C934" s="1"/>
       <c r="F934" s="1"/>
+      <c r="G934" s="2"/>
       <c r="H934" s="3"/>
     </row>
-    <row r="935" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="1"/>
       <c r="C935" s="1"/>
       <c r="F935" s="1"/>
+      <c r="G935" s="2"/>
       <c r="H935" s="3"/>
     </row>
-    <row r="936" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="1"/>
       <c r="C936" s="1"/>
       <c r="F936" s="1"/>
+      <c r="G936" s="2"/>
       <c r="H936" s="3"/>
     </row>
-    <row r="937" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="1"/>
       <c r="C937" s="1"/>
       <c r="F937" s="1"/>
+      <c r="G937" s="2"/>
       <c r="H937" s="3"/>
     </row>
-    <row r="938" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="1"/>
       <c r="C938" s="1"/>
       <c r="F938" s="1"/>
+      <c r="G938" s="2"/>
       <c r="H938" s="3"/>
     </row>
-    <row r="939" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="1"/>
       <c r="C939" s="1"/>
       <c r="F939" s="1"/>
+      <c r="G939" s="2"/>
       <c r="H939" s="3"/>
     </row>
-    <row r="940" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="1"/>
       <c r="C940" s="1"/>
       <c r="F940" s="1"/>
+      <c r="G940" s="2"/>
       <c r="H940" s="3"/>
     </row>
-    <row r="941" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1"/>
       <c r="C941" s="1"/>
       <c r="F941" s="1"/>
+      <c r="G941" s="2"/>
       <c r="H941" s="3"/>
     </row>
-    <row r="942" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1"/>
       <c r="C942" s="1"/>
       <c r="F942" s="1"/>
+      <c r="G942" s="2"/>
       <c r="H942" s="3"/>
     </row>
-    <row r="943" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1"/>
       <c r="C943" s="1"/>
       <c r="F943" s="1"/>
+      <c r="G943" s="2"/>
       <c r="H943" s="3"/>
     </row>
-    <row r="944" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1"/>
       <c r="C944" s="1"/>
       <c r="F944" s="1"/>
+      <c r="G944" s="2"/>
       <c r="H944" s="3"/>
     </row>
-    <row r="945" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1"/>
       <c r="C945" s="1"/>
       <c r="F945" s="1"/>
+      <c r="G945" s="2"/>
       <c r="H945" s="3"/>
     </row>
-    <row r="946" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="1"/>
       <c r="C946" s="1"/>
       <c r="F946" s="1"/>
+      <c r="G946" s="2"/>
       <c r="H946" s="3"/>
     </row>
-    <row r="947" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="1"/>
       <c r="C947" s="1"/>
       <c r="F947" s="1"/>
+      <c r="G947" s="2"/>
       <c r="H947" s="3"/>
     </row>
-    <row r="948" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1"/>
       <c r="C948" s="1"/>
       <c r="F948" s="1"/>
+      <c r="G948" s="2"/>
       <c r="H948" s="3"/>
     </row>
-    <row r="949" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1"/>
       <c r="C949" s="1"/>
       <c r="F949" s="1"/>
+      <c r="G949" s="2"/>
       <c r="H949" s="3"/>
     </row>
-    <row r="950" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1"/>
       <c r="C950" s="1"/>
       <c r="F950" s="1"/>
+      <c r="G950" s="2"/>
       <c r="H950" s="3"/>
     </row>
-    <row r="951" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="1"/>
       <c r="C951" s="1"/>
       <c r="F951" s="1"/>
+      <c r="G951" s="2"/>
       <c r="H951" s="3"/>
     </row>
-    <row r="952" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="1"/>
       <c r="C952" s="1"/>
       <c r="F952" s="1"/>
+      <c r="G952" s="2"/>
       <c r="H952" s="3"/>
     </row>
-    <row r="953" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="1"/>
       <c r="C953" s="1"/>
       <c r="F953" s="1"/>
+      <c r="G953" s="2"/>
       <c r="H953" s="3"/>
     </row>
-    <row r="954" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="1"/>
       <c r="C954" s="1"/>
       <c r="F954" s="1"/>
+      <c r="G954" s="2"/>
       <c r="H954" s="3"/>
     </row>
-    <row r="955" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="1"/>
       <c r="C955" s="1"/>
       <c r="F955" s="1"/>
+      <c r="G955" s="2"/>
       <c r="H955" s="3"/>
     </row>
-    <row r="956" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="956" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1"/>
       <c r="C956" s="1"/>
       <c r="F956" s="1"/>
+      <c r="G956" s="2"/>
       <c r="H956" s="3"/>
     </row>
-    <row r="957" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="1"/>
       <c r="C957" s="1"/>
       <c r="F957" s="1"/>
+      <c r="G957" s="2"/>
       <c r="H957" s="3"/>
     </row>
-    <row r="958" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="1"/>
       <c r="C958" s="1"/>
       <c r="F958" s="1"/>
+      <c r="G958" s="2"/>
       <c r="H958" s="3"/>
     </row>
-    <row r="959" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="1"/>
       <c r="C959" s="1"/>
       <c r="F959" s="1"/>
+      <c r="G959" s="2"/>
       <c r="H959" s="3"/>
     </row>
-    <row r="960" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="1"/>
       <c r="C960" s="1"/>
       <c r="F960" s="1"/>
+      <c r="G960" s="2"/>
       <c r="H960" s="3"/>
     </row>
-    <row r="961" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="961" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="1"/>
       <c r="C961" s="1"/>
       <c r="F961" s="1"/>
+      <c r="G961" s="2"/>
       <c r="H961" s="3"/>
     </row>
-    <row r="962" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="962" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="1"/>
       <c r="C962" s="1"/>
       <c r="F962" s="1"/>
+      <c r="G962" s="2"/>
       <c r="H962" s="3"/>
     </row>
-    <row r="963" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="963" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="1"/>
       <c r="C963" s="1"/>
       <c r="F963" s="1"/>
+      <c r="G963" s="2"/>
       <c r="H963" s="3"/>
     </row>
-    <row r="964" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="964" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="1"/>
       <c r="C964" s="1"/>
       <c r="F964" s="1"/>
+      <c r="G964" s="2"/>
       <c r="H964" s="3"/>
     </row>
-    <row r="965" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="965" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="1"/>
       <c r="C965" s="1"/>
       <c r="F965" s="1"/>
+      <c r="G965" s="2"/>
       <c r="H965" s="3"/>
     </row>
-    <row r="966" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="966" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="1"/>
       <c r="C966" s="1"/>
       <c r="F966" s="1"/>
+      <c r="G966" s="2"/>
       <c r="H966" s="3"/>
     </row>
-    <row r="967" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="967" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1"/>
       <c r="C967" s="1"/>
       <c r="F967" s="1"/>
+      <c r="G967" s="2"/>
       <c r="H967" s="3"/>
     </row>
-    <row r="968" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="968" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="1"/>
       <c r="C968" s="1"/>
       <c r="F968" s="1"/>
+      <c r="G968" s="2"/>
       <c r="H968" s="3"/>
     </row>
-    <row r="969" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="969" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="1"/>
       <c r="C969" s="1"/>
       <c r="F969" s="1"/>
+      <c r="G969" s="2"/>
       <c r="H969" s="3"/>
     </row>
-    <row r="970" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="970" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="1"/>
       <c r="C970" s="1"/>
       <c r="F970" s="1"/>
+      <c r="G970" s="2"/>
       <c r="H970" s="3"/>
     </row>
-    <row r="971" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="971" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="1"/>
       <c r="C971" s="1"/>
       <c r="F971" s="1"/>
+      <c r="G971" s="2"/>
       <c r="H971" s="3"/>
     </row>
-    <row r="972" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="972" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="1"/>
       <c r="C972" s="1"/>
       <c r="F972" s="1"/>
+      <c r="G972" s="2"/>
       <c r="H972" s="3"/>
     </row>
-    <row r="973" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="973" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="1"/>
       <c r="C973" s="1"/>
       <c r="F973" s="1"/>
+      <c r="G973" s="2"/>
       <c r="H973" s="3"/>
     </row>
-    <row r="974" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="974" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="1"/>
       <c r="C974" s="1"/>
       <c r="F974" s="1"/>
+      <c r="G974" s="2"/>
       <c r="H974" s="3"/>
     </row>
-    <row r="975" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="975" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="1"/>
       <c r="C975" s="1"/>
       <c r="F975" s="1"/>
+      <c r="G975" s="2"/>
       <c r="H975" s="3"/>
     </row>
-    <row r="976" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="976" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="1"/>
       <c r="C976" s="1"/>
       <c r="F976" s="1"/>
+      <c r="G976" s="2"/>
       <c r="H976" s="3"/>
     </row>
-    <row r="977" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="977" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="1"/>
       <c r="C977" s="1"/>
       <c r="F977" s="1"/>
+      <c r="G977" s="2"/>
       <c r="H977" s="3"/>
     </row>
-    <row r="978" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="978" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="1"/>
       <c r="C978" s="1"/>
       <c r="F978" s="1"/>
+      <c r="G978" s="2"/>
       <c r="H978" s="3"/>
     </row>
-    <row r="979" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="979" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="1"/>
       <c r="C979" s="1"/>
       <c r="F979" s="1"/>
+      <c r="G979" s="2"/>
       <c r="H979" s="3"/>
     </row>
-    <row r="980" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="980" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="1"/>
       <c r="C980" s="1"/>
       <c r="F980" s="1"/>
+      <c r="G980" s="2"/>
       <c r="H980" s="3"/>
     </row>
-    <row r="981" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="981" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="1"/>
       <c r="C981" s="1"/>
       <c r="F981" s="1"/>
+      <c r="G981" s="2"/>
       <c r="H981" s="3"/>
     </row>
-    <row r="982" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="982" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="1"/>
       <c r="C982" s="1"/>
       <c r="F982" s="1"/>
+      <c r="G982" s="2"/>
       <c r="H982" s="3"/>
     </row>
-    <row r="983" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="983" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="1"/>
       <c r="C983" s="1"/>
       <c r="F983" s="1"/>
+      <c r="G983" s="2"/>
       <c r="H983" s="3"/>
     </row>
-    <row r="984" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="984" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="1"/>
       <c r="C984" s="1"/>
       <c r="F984" s="1"/>
+      <c r="G984" s="2"/>
       <c r="H984" s="3"/>
     </row>
-    <row r="985" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="985" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="1"/>
       <c r="C985" s="1"/>
       <c r="F985" s="1"/>
+      <c r="G985" s="2"/>
       <c r="H985" s="3"/>
     </row>
-    <row r="986" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="986" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="1"/>
       <c r="C986" s="1"/>
       <c r="F986" s="1"/>
+      <c r="G986" s="2"/>
       <c r="H986" s="3"/>
     </row>
-    <row r="987" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="987" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="1"/>
       <c r="C987" s="1"/>
       <c r="F987" s="1"/>
+      <c r="G987" s="2"/>
       <c r="H987" s="3"/>
     </row>
-    <row r="988" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="988" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="1"/>
       <c r="C988" s="1"/>
       <c r="F988" s="1"/>
+      <c r="G988" s="2"/>
       <c r="H988" s="3"/>
     </row>
-    <row r="989" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="989" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="1"/>
       <c r="C989" s="1"/>
       <c r="F989" s="1"/>
+      <c r="G989" s="2"/>
       <c r="H989" s="3"/>
     </row>
-    <row r="990" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="990" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="1"/>
       <c r="C990" s="1"/>
       <c r="F990" s="1"/>
+      <c r="G990" s="2"/>
       <c r="H990" s="3"/>
     </row>
-    <row r="991" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="991" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="1"/>
       <c r="C991" s="1"/>
       <c r="F991" s="1"/>
+      <c r="G991" s="2"/>
       <c r="H991" s="3"/>
     </row>
-    <row r="992" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="992" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="1"/>
       <c r="C992" s="1"/>
       <c r="F992" s="1"/>
+      <c r="G992" s="2"/>
       <c r="H992" s="3"/>
     </row>
-    <row r="993" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="993" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="1"/>
       <c r="C993" s="1"/>
       <c r="F993" s="1"/>
+      <c r="G993" s="2"/>
       <c r="H993" s="3"/>
     </row>
-    <row r="994" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="994" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="1"/>
       <c r="C994" s="1"/>
       <c r="F994" s="1"/>
+      <c r="G994" s="2"/>
       <c r="H994" s="3"/>
     </row>
-    <row r="995" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="995" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1"/>
       <c r="C995" s="1"/>
       <c r="F995" s="1"/>
+      <c r="G995" s="2"/>
       <c r="H995" s="3"/>
     </row>
-    <row r="996" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="996" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="1"/>
       <c r="C996" s="1"/>
       <c r="F996" s="1"/>
+      <c r="G996" s="2"/>
       <c r="H996" s="3"/>
     </row>
-    <row r="997" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="997" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="1"/>
       <c r="C997" s="1"/>
       <c r="F997" s="1"/>
+      <c r="G997" s="2"/>
       <c r="H997" s="3"/>
     </row>
-    <row r="998" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="998" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="1"/>
       <c r="C998" s="1"/>
       <c r="F998" s="1"/>
+      <c r="G998" s="2"/>
       <c r="H998" s="3"/>
     </row>
-    <row r="999" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="999" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="1"/>
       <c r="C999" s="1"/>
       <c r="F999" s="1"/>
+      <c r="G999" s="2"/>
       <c r="H999" s="3"/>
     </row>
-    <row r="1000" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1000" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="1"/>
       <c r="C1000" s="1"/>
       <c r="F1000" s="1"/>
+      <c r="G1000" s="2"/>
       <c r="H1000" s="3"/>
     </row>
-    <row r="1001" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1001" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="1"/>
       <c r="C1001" s="1"/>
       <c r="F1001" s="1"/>
+      <c r="G1001" s="2"/>
       <c r="H1001" s="3"/>
     </row>
-    <row r="1002" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1002" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="1"/>
       <c r="C1002" s="1"/>
       <c r="F1002" s="1"/>
+      <c r="G1002" s="2"/>
       <c r="H1002" s="3"/>
     </row>
-    <row r="1003" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1003" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="1"/>
       <c r="C1003" s="1"/>
       <c r="F1003" s="1"/>
+      <c r="G1003" s="2"/>
       <c r="H1003" s="3"/>
     </row>
-    <row r="1004" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1004" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="1"/>
       <c r="C1004" s="1"/>
       <c r="F1004" s="1"/>
+      <c r="G1004" s="2"/>
       <c r="H1004" s="3"/>
     </row>
-    <row r="1005" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1005" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="1"/>
       <c r="C1005" s="1"/>
       <c r="F1005" s="1"/>
+      <c r="G1005" s="2"/>
       <c r="H1005" s="3"/>
     </row>
-    <row r="1006" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1006" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="1"/>
       <c r="C1006" s="1"/>
       <c r="F1006" s="1"/>
+      <c r="G1006" s="2"/>
       <c r="H1006" s="3"/>
     </row>
-    <row r="1007" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1007" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="1"/>
       <c r="C1007" s="1"/>
       <c r="F1007" s="1"/>
+      <c r="G1007" s="2"/>
       <c r="H1007" s="3"/>
     </row>
-    <row r="1008" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1008" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="1"/>
       <c r="C1008" s="1"/>
       <c r="F1008" s="1"/>
+      <c r="G1008" s="2"/>
       <c r="H1008" s="3"/>
     </row>
-    <row r="1009" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1009" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="1"/>
       <c r="C1009" s="1"/>
       <c r="F1009" s="1"/>
+      <c r="G1009" s="2"/>
       <c r="H1009" s="3"/>
     </row>
-    <row r="1010" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1010" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="1"/>
       <c r="C1010" s="1"/>
       <c r="F1010" s="1"/>
+      <c r="G1010" s="2"/>
       <c r="H1010" s="3"/>
     </row>
-    <row r="1011" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1011" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="1"/>
       <c r="C1011" s="1"/>
       <c r="F1011" s="1"/>
+      <c r="G1011" s="2"/>
       <c r="H1011" s="3"/>
     </row>
-    <row r="1012" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1012" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="1"/>
       <c r="C1012" s="1"/>
       <c r="F1012" s="1"/>
+      <c r="G1012" s="2"/>
       <c r="H1012" s="3"/>
     </row>
-    <row r="1013" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1013" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="1"/>
       <c r="C1013" s="1"/>
       <c r="F1013" s="1"/>
+      <c r="G1013" s="2"/>
       <c r="H1013" s="3"/>
     </row>
   </sheetData>
@@ -6673,9 +7586,6 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="I11:I13"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" display="https://the-internet.herokuapp.com/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Test Cases/Test Suite - 0001.xlsx
+++ b/Test Cases/Test Suite - 0001.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t xml:space="preserve">Test suite for A/B Testing</t>
   </si>
@@ -100,16 +100,31 @@
     <t xml:space="preserve">Click on the site logo</t>
   </si>
   <si>
+    <t xml:space="preserve">Clicked</t>
+  </si>
+  <si>
     <t xml:space="preserve">The site logo should be clicked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass</t>
   </si>
   <si>
     <t xml:space="preserve">Wait till the page reloads</t>
   </si>
   <si>
+    <t xml:space="preserve">Reloaded</t>
+  </si>
+  <si>
     <t xml:space="preserve">The page should reload</t>
   </si>
   <si>
+    <t xml:space="preserve">Waiting for the reload wasn’t necessary</t>
+  </si>
+  <si>
     <t xml:space="preserve">Check page URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same</t>
   </si>
   <si>
     <t xml:space="preserve">The page URL should not change</t>
@@ -409,7 +424,7 @@
   <dimension ref="A2:J1013"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
+      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -529,11 +544,15 @@
       <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="I11" s="11" t="s">
         <v>6</v>
       </c>
@@ -541,22 +560,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" s="13" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="13" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="12"/>
       <c r="I12" s="11"/>
       <c r="J12" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" s="13" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,13 +588,17 @@
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="I13" s="11"/>
       <c r="J13" s="2" t="s">
         <v>9</v>
